--- a/hecCalc/2023/documentum/Total BOQ_20230919.xlsx
+++ b/hecCalc/2023/documentum/Total BOQ_20230919.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MK\mQ\hecCalc\2023\documentum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\hecCalc\2023\documentum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AFD4D74-A152-48AD-806E-0A7096690897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1F0CFC-ED30-4326-BF9E-466D48F813A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="0" windowWidth="12000" windowHeight="12900" xr2:uid="{D46DD879-F62C-4FF3-8272-253F3C610267}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15990" xr2:uid="{D46DD879-F62C-4FF3-8272-253F3C610267}"/>
   </bookViews>
   <sheets>
-    <sheet name="(AR) BOQ " sheetId="1" r:id="rId1"/>
+    <sheet name="(AR) BOQ" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -31,30 +31,29 @@
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
-    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="_" hidden="1">[1]대비표!#REF!</definedName>
     <definedName name="___1A1_" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="___A1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="__123Graph_A" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_ACurrent" hidden="1">'[3]Eq. Mobilization'!#REF!</definedName>
+    <definedName name="__123Graph_ACurrent" hidden="1">'[2]Eq. Mobilization'!#REF!</definedName>
     <definedName name="__123Graph_B" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_BCurrent" hidden="1">'[3]Eq. Mobilization'!#REF!</definedName>
-    <definedName name="__123Graph_BPERFORMANCE" hidden="1">[4]BQMPALOC!#REF!</definedName>
-    <definedName name="__123Graph_C" hidden="1">[5]DRUM!#REF!</definedName>
+    <definedName name="__123Graph_BCurrent" hidden="1">'[2]Eq. Mobilization'!#REF!</definedName>
+    <definedName name="__123Graph_BPERFORMANCE" hidden="1">[3]BQMPALOC!#REF!</definedName>
+    <definedName name="__123Graph_C" hidden="1">[4]DRUM!#REF!</definedName>
     <definedName name="__123Graph_D" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_E" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_F" hidden="1">[6]B!#REF!</definedName>
-    <definedName name="__123Graph_LBL_A" hidden="1">'[3]Eq. Mobilization'!#REF!</definedName>
-    <definedName name="__123Graph_LBL_B" hidden="1">'[3]Eq. Mobilization'!#REF!</definedName>
-    <definedName name="__123Graph_X" hidden="1">[5]DRUM!#REF!</definedName>
-    <definedName name="__123Graph_XCurrent" hidden="1">'[3]Eq. Mobilization'!#REF!</definedName>
+    <definedName name="__123Graph_F" hidden="1">[5]B!#REF!</definedName>
+    <definedName name="__123Graph_LBL_A" hidden="1">'[2]Eq. Mobilization'!#REF!</definedName>
+    <definedName name="__123Graph_LBL_B" hidden="1">'[2]Eq. Mobilization'!#REF!</definedName>
+    <definedName name="__123Graph_X" hidden="1">[4]DRUM!#REF!</definedName>
+    <definedName name="__123Graph_XCurrent" hidden="1">'[2]Eq. Mobilization'!#REF!</definedName>
     <definedName name="__1A1_" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="__A1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="_001" hidden="1">{#N/A,#N/A,FALSE,"B-001";#N/A,#N/A,FALSE,"B-002";#N/A,#N/A,FALSE,"B-003";#N/A,#N/A,FALSE,"B-004";#N/A,#N/A,FALSE,"B-005";#N/A,#N/A,FALSE,"B-010";#N/A,#N/A,FALSE,"C-001";#N/A,#N/A,FALSE,"C-002";#N/A,#N/A,FALSE,"C-003";#N/A,#N/A,FALSE,"C-004";#N/A,#N/A,FALSE,"C-005";#N/A,#N/A,FALSE,"C-010";#N/A,#N/A,FALSE,"D-001";#N/A,#N/A,FALSE,"D-003";#N/A,#N/A,FALSE,"E-001";#N/A,#N/A,FALSE,"E-002";#N/A,#N/A,FALSE,"E-011";#N/A,#N/A,FALSE,"E-012";#N/A,#N/A,FALSE,"F-001";#N/A,#N/A,FALSE,"F-005";#N/A,#N/A,FALSE,"J-001";#N/A,#N/A,FALSE,"J-002";#N/A,#N/A,FALSE,"J-003";#N/A,#N/A,FALSE,"J-004";#N/A,#N/A,FALSE,"J-005";#N/A,#N/A,FALSE,"J-006";#N/A,#N/A,FALSE,"J-008";#N/A,#N/A,FALSE,"J-009";#N/A,#N/A,FALSE,"J-011";#N/A,#N/A,FALSE,"J-012";#N/A,#N/A,FALSE,"J-014";#N/A,#N/A,FALSE,"J-017";#N/A,#N/A,FALSE,"L-001";#N/A,#N/A,FALSE,"L-002";#N/A,#N/A,FALSE,"L-003";#N/A,#N/A,FALSE,"L-004";#N/A,#N/A,FALSE,"L-005";#N/A,#N/A,FALSE,"L-006";#N/A,#N/A,FALSE,"L-007";#N/A,#N/A,FALSE,"L-051";#N/A,#N/A,FALSE,"L-052";#N/A,#N/A,FALSE,"L-053";#N/A,#N/A,FALSE,"L-054";#N/A,#N/A,FALSE,"L-058";#N/A,#N/A,FALSE,"LR-001";#N/A,#N/A,FALSE,"U-001";#N/A,#N/A,FALSE,"U-002";#N/A,#N/A,FALSE,"U-010";#N/A,#N/A,FALSE,"U-051";#N/A,#N/A,FALSE,"UC-001";#N/A,#N/A,FALSE,"SIDE FILTER";#N/A,#N/A,FALSE,"CI-001-3";#N/A,#N/A,FALSE,"Load Arm"}</definedName>
     <definedName name="_002" hidden="1">{#N/A,#N/A,FALSE,"B-001";#N/A,#N/A,FALSE,"B-002";#N/A,#N/A,FALSE,"B-003";#N/A,#N/A,FALSE,"B-004";#N/A,#N/A,FALSE,"B-005";#N/A,#N/A,FALSE,"B-010";#N/A,#N/A,FALSE,"C-001";#N/A,#N/A,FALSE,"C-002";#N/A,#N/A,FALSE,"C-003";#N/A,#N/A,FALSE,"C-004";#N/A,#N/A,FALSE,"C-005";#N/A,#N/A,FALSE,"C-010";#N/A,#N/A,FALSE,"D-001";#N/A,#N/A,FALSE,"D-003";#N/A,#N/A,FALSE,"E-001";#N/A,#N/A,FALSE,"E-002";#N/A,#N/A,FALSE,"E-011";#N/A,#N/A,FALSE,"E-012";#N/A,#N/A,FALSE,"F-001";#N/A,#N/A,FALSE,"F-005";#N/A,#N/A,FALSE,"J-001";#N/A,#N/A,FALSE,"J-002";#N/A,#N/A,FALSE,"J-003";#N/A,#N/A,FALSE,"J-004";#N/A,#N/A,FALSE,"J-005";#N/A,#N/A,FALSE,"J-006";#N/A,#N/A,FALSE,"J-008";#N/A,#N/A,FALSE,"J-009";#N/A,#N/A,FALSE,"J-011";#N/A,#N/A,FALSE,"J-012";#N/A,#N/A,FALSE,"J-014";#N/A,#N/A,FALSE,"J-017";#N/A,#N/A,FALSE,"L-001";#N/A,#N/A,FALSE,"L-002";#N/A,#N/A,FALSE,"L-003";#N/A,#N/A,FALSE,"L-004";#N/A,#N/A,FALSE,"L-005";#N/A,#N/A,FALSE,"L-006";#N/A,#N/A,FALSE,"L-007";#N/A,#N/A,FALSE,"L-051";#N/A,#N/A,FALSE,"L-052";#N/A,#N/A,FALSE,"L-053";#N/A,#N/A,FALSE,"L-054";#N/A,#N/A,FALSE,"L-058";#N/A,#N/A,FALSE,"LR-001";#N/A,#N/A,FALSE,"U-001";#N/A,#N/A,FALSE,"U-002";#N/A,#N/A,FALSE,"U-010";#N/A,#N/A,FALSE,"U-051";#N/A,#N/A,FALSE,"UC-001";#N/A,#N/A,FALSE,"SIDE FILTER";#N/A,#N/A,FALSE,"CI-001-3";#N/A,#N/A,FALSE,"Load Arm"}</definedName>
-    <definedName name="_1" hidden="1">[4]BQMPALOC!#REF!</definedName>
+    <definedName name="_1" hidden="1">[3]BQMPALOC!#REF!</definedName>
     <definedName name="_11A1_" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="_11A1__1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="_11A1__1_1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
@@ -75,21 +74,21 @@
     <definedName name="_1F" hidden="1">[1]대비표!#REF!</definedName>
     <definedName name="_2A1_" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="_2a129_" hidden="1">{"Offgrid",#N/A,FALSE,"OFFGRID";"Region",#N/A,FALSE,"REGION";"Offgrid -2",#N/A,FALSE,"OFFGRID";"WTP",#N/A,FALSE,"WTP";"WTP -2",#N/A,FALSE,"WTP";"Project",#N/A,FALSE,"PROJECT";"Summary -2",#N/A,FALSE,"SUMMARY"}</definedName>
-    <definedName name="_2F" hidden="1">[7]노임단가!#REF!</definedName>
+    <definedName name="_2F" hidden="1">[6]노임단가!#REF!</definedName>
     <definedName name="_3_0__123Grap" hidden="1">#REF!</definedName>
-    <definedName name="_3S" hidden="1">'[8]6PILE  (돌출)'!#REF!</definedName>
+    <definedName name="_3S" hidden="1">'[7]6PILE  (돌출)'!#REF!</definedName>
     <definedName name="_4_0_0_F" hidden="1">[1]대비표!#REF!</definedName>
-    <definedName name="_4_0_F" hidden="1">[7]노임단가!#REF!</definedName>
+    <definedName name="_4_0_F" hidden="1">[6]노임단가!#REF!</definedName>
     <definedName name="_4a130_" hidden="1">{"Offgrid",#N/A,FALSE,"OFFGRID";"Region",#N/A,FALSE,"REGION";"Offgrid -2",#N/A,FALSE,"OFFGRID";"WTP",#N/A,FALSE,"WTP";"WTP -2",#N/A,FALSE,"WTP";"Project",#N/A,FALSE,"PROJECT";"Summary -2",#N/A,FALSE,"SUMMARY"}</definedName>
     <definedName name="_5_0_0_F" hidden="1">[1]산근!#REF!</definedName>
-    <definedName name="_5_0_S" hidden="1">'[8]6PILE  (돌출)'!#REF!</definedName>
-    <definedName name="_6_2___Parse" hidden="1">[7]노임단가!#REF!</definedName>
+    <definedName name="_5_0_S" hidden="1">'[7]6PILE  (돌출)'!#REF!</definedName>
+    <definedName name="_6_2___Parse" hidden="1">[6]노임단가!#REF!</definedName>
     <definedName name="_6F" hidden="1">[1]대비표!#REF!</definedName>
-    <definedName name="_7_2_0_Parse" hidden="1">[7]노임단가!#REF!</definedName>
+    <definedName name="_7_2_0_Parse" hidden="1">[6]노임단가!#REF!</definedName>
     <definedName name="_9_0_0_F" hidden="1">'[1]집계표(OPTION)'!#REF!</definedName>
     <definedName name="_A1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="_BB1" hidden="1">{"'장비'!$A$3:$M$12"}</definedName>
-    <definedName name="_Dist_Bin" hidden="1">[9]찍기!#REF!</definedName>
+    <definedName name="_Dist_Bin" hidden="1">[8]찍기!#REF!</definedName>
     <definedName name="_er1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" hidden="1">#REF!</definedName>
@@ -115,8 +114,8 @@
     <definedName name="_Sort" hidden="1">#REF!</definedName>
     <definedName name="_t1" hidden="1">#REF!</definedName>
     <definedName name="_t2" hidden="1">#REF!</definedName>
-    <definedName name="_Table1_In1" hidden="1">[10]inter!#REF!</definedName>
-    <definedName name="_Table1_Out" hidden="1">[10]inter!#REF!</definedName>
+    <definedName name="_Table1_In1" hidden="1">[9]inter!#REF!</definedName>
+    <definedName name="_Table1_Out" hidden="1">[9]inter!#REF!</definedName>
     <definedName name="_WJS1" hidden="1">{"'장비'!$A$3:$M$12"}</definedName>
     <definedName name="_woogi" hidden="1">#REF!</definedName>
     <definedName name="_woogi2" hidden="1">#REF!</definedName>
@@ -959,7 +958,7 @@
     <definedName name="PKAAA" hidden="1">#REF!</definedName>
     <definedName name="PKBB" hidden="1">#REF!</definedName>
     <definedName name="PKCC" hidden="1">#REF!</definedName>
-    <definedName name="PKDD" hidden="1">[11]기계내역서!#REF!</definedName>
+    <definedName name="PKDD" hidden="1">[10]기계내역서!#REF!</definedName>
     <definedName name="PO">{"Book1","DOC&amp;DWG.xls"}</definedName>
     <definedName name="PRAYER" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="ProdForm" hidden="1">#REF!</definedName>
@@ -1178,7 +1177,7 @@
     <definedName name="SX" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="TableSummary" hidden="1">#REF!</definedName>
     <definedName name="tbl_ProdInfo" hidden="1">#REF!</definedName>
-    <definedName name="TEMP" hidden="1">'[12]EQT-ESTN'!#REF!</definedName>
+    <definedName name="TEMP" hidden="1">'[11]EQT-ESTN'!#REF!</definedName>
     <definedName name="teri" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="teri_1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="teri_1_1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
@@ -1251,8 +1250,8 @@
     <definedName name="Waste_5_2" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="WEEE" hidden="1">{#N/A,#N/A,FALSE,"B-001";#N/A,#N/A,FALSE,"B-002";#N/A,#N/A,FALSE,"B-003";#N/A,#N/A,FALSE,"B-004";#N/A,#N/A,FALSE,"B-005";#N/A,#N/A,FALSE,"B-010";#N/A,#N/A,FALSE,"C-001";#N/A,#N/A,FALSE,"C-002";#N/A,#N/A,FALSE,"C-003";#N/A,#N/A,FALSE,"C-004";#N/A,#N/A,FALSE,"C-005";#N/A,#N/A,FALSE,"C-010";#N/A,#N/A,FALSE,"D-001";#N/A,#N/A,FALSE,"D-003";#N/A,#N/A,FALSE,"E-001";#N/A,#N/A,FALSE,"E-002";#N/A,#N/A,FALSE,"E-011";#N/A,#N/A,FALSE,"E-012";#N/A,#N/A,FALSE,"F-001";#N/A,#N/A,FALSE,"F-005";#N/A,#N/A,FALSE,"J-001";#N/A,#N/A,FALSE,"J-002";#N/A,#N/A,FALSE,"J-003";#N/A,#N/A,FALSE,"J-004";#N/A,#N/A,FALSE,"J-005";#N/A,#N/A,FALSE,"J-006";#N/A,#N/A,FALSE,"J-008";#N/A,#N/A,FALSE,"J-009";#N/A,#N/A,FALSE,"J-011";#N/A,#N/A,FALSE,"J-012";#N/A,#N/A,FALSE,"J-014";#N/A,#N/A,FALSE,"J-017";#N/A,#N/A,FALSE,"L-001";#N/A,#N/A,FALSE,"L-002";#N/A,#N/A,FALSE,"L-003";#N/A,#N/A,FALSE,"L-004";#N/A,#N/A,FALSE,"L-005";#N/A,#N/A,FALSE,"L-006";#N/A,#N/A,FALSE,"L-007";#N/A,#N/A,FALSE,"L-051";#N/A,#N/A,FALSE,"L-052";#N/A,#N/A,FALSE,"L-053";#N/A,#N/A,FALSE,"L-054";#N/A,#N/A,FALSE,"L-058";#N/A,#N/A,FALSE,"LR-001";#N/A,#N/A,FALSE,"U-001";#N/A,#N/A,FALSE,"U-002";#N/A,#N/A,FALSE,"U-010";#N/A,#N/A,FALSE,"U-051";#N/A,#N/A,FALSE,"UC-001";#N/A,#N/A,FALSE,"SIDE FILTER";#N/A,#N/A,FALSE,"CI-001-3";#N/A,#N/A,FALSE,"Load Arm"}</definedName>
     <definedName name="weight" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
-    <definedName name="weki_9701.xls" hidden="1">'[3]Eq. Mobilization'!#REF!</definedName>
-    <definedName name="wekir9701.xls" hidden="1">'[3]Eq. Mobilization'!#REF!</definedName>
+    <definedName name="weki_9701.xls" hidden="1">'[2]Eq. Mobilization'!#REF!</definedName>
+    <definedName name="wekir9701.xls" hidden="1">'[2]Eq. Mobilization'!#REF!</definedName>
     <definedName name="WEQWE" hidden="1">{#N/A,#N/A,FALSE,"B-001";#N/A,#N/A,FALSE,"B-002";#N/A,#N/A,FALSE,"B-003";#N/A,#N/A,FALSE,"B-004";#N/A,#N/A,FALSE,"B-005";#N/A,#N/A,FALSE,"B-010";#N/A,#N/A,FALSE,"C-001";#N/A,#N/A,FALSE,"C-002";#N/A,#N/A,FALSE,"C-003";#N/A,#N/A,FALSE,"C-004";#N/A,#N/A,FALSE,"C-005";#N/A,#N/A,FALSE,"C-010";#N/A,#N/A,FALSE,"D-001";#N/A,#N/A,FALSE,"D-003";#N/A,#N/A,FALSE,"E-001";#N/A,#N/A,FALSE,"E-002";#N/A,#N/A,FALSE,"E-011";#N/A,#N/A,FALSE,"E-012";#N/A,#N/A,FALSE,"F-001";#N/A,#N/A,FALSE,"F-005";#N/A,#N/A,FALSE,"J-001";#N/A,#N/A,FALSE,"J-002";#N/A,#N/A,FALSE,"J-003";#N/A,#N/A,FALSE,"J-004";#N/A,#N/A,FALSE,"J-005";#N/A,#N/A,FALSE,"J-006";#N/A,#N/A,FALSE,"J-008";#N/A,#N/A,FALSE,"J-009";#N/A,#N/A,FALSE,"J-011";#N/A,#N/A,FALSE,"J-012";#N/A,#N/A,FALSE,"J-014";#N/A,#N/A,FALSE,"J-017";#N/A,#N/A,FALSE,"L-001";#N/A,#N/A,FALSE,"L-002";#N/A,#N/A,FALSE,"L-003";#N/A,#N/A,FALSE,"L-004";#N/A,#N/A,FALSE,"L-005";#N/A,#N/A,FALSE,"L-006";#N/A,#N/A,FALSE,"L-007";#N/A,#N/A,FALSE,"L-051";#N/A,#N/A,FALSE,"L-052";#N/A,#N/A,FALSE,"L-053";#N/A,#N/A,FALSE,"L-054";#N/A,#N/A,FALSE,"L-058";#N/A,#N/A,FALSE,"LR-001";#N/A,#N/A,FALSE,"U-001";#N/A,#N/A,FALSE,"U-002";#N/A,#N/A,FALSE,"U-010";#N/A,#N/A,FALSE,"U-051";#N/A,#N/A,FALSE,"UC-001";#N/A,#N/A,FALSE,"SIDE FILTER";#N/A,#N/A,FALSE,"CI-001-3";#N/A,#N/A,FALSE,"Load Arm"}</definedName>
     <definedName name="who_are" hidden="1">#REF!</definedName>
     <definedName name="who_are2" hidden="1">#REF!</definedName>
@@ -1439,7 +1438,7 @@
     <definedName name="견적2" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="견적SHEET" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="견적내역" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
-    <definedName name="견적조건" hidden="1">[13]산근!#REF!</definedName>
+    <definedName name="견적조건" hidden="1">[12]산근!#REF!</definedName>
     <definedName name="견적조건8" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="경비2차분" hidden="1">{"'장비'!$A$3:$M$12"}</definedName>
     <definedName name="계약고햔황2" hidden="1">#REF!</definedName>
@@ -1572,7 +1571,7 @@
     <definedName name="ㅂㅂㅂㅂㅂㅂㅂ" hidden="1">{#N/A,#N/A,FALSE,"명세표"}</definedName>
     <definedName name="바쓔ㅜㅇ" hidden="1">{#N/A,#N/A,FALSE,"명세표"}</definedName>
     <definedName name="박성민" hidden="1">{#N/A,#N/A,TRUE,"LOADCOVE";#N/A,#N/A,TRUE,"PAGE001";#N/A,#N/A,TRUE,"PAGE002";#N/A,#N/A,TRUE,"PAGE003";#N/A,#N/A,TRUE,"PAGE004";#N/A,#N/A,TRUE,"PAGE005";#N/A,#N/A,TRUE,"PAGE006";#N/A,#N/A,TRUE,"PAGE007";#N/A,#N/A,TRUE,"PAGE008";#N/A,#N/A,TRUE,"PAGE009";#N/A,#N/A,TRUE,"PAGE010";#N/A,#N/A,TRUE,"PAGE011";#N/A,#N/A,TRUE,"PAGE012";#N/A,#N/A,TRUE,"PAGE013"}</definedName>
-    <definedName name="벽강관파일" hidden="1">[7]노임단가!#REF!</definedName>
+    <definedName name="벽강관파일" hidden="1">[6]노임단가!#REF!</definedName>
     <definedName name="벽체" hidden="1">{#N/A,#N/A,FALSE,"혼합골재"}</definedName>
     <definedName name="변형" hidden="1">{#N/A,#N/A,TRUE,"LOADCOVE";#N/A,#N/A,TRUE,"PAGE001";#N/A,#N/A,TRUE,"PAGE002";#N/A,#N/A,TRUE,"PAGE003";#N/A,#N/A,TRUE,"PAGE004";#N/A,#N/A,TRUE,"PAGE005";#N/A,#N/A,TRUE,"PAGE006";#N/A,#N/A,TRUE,"PAGE007";#N/A,#N/A,TRUE,"PAGE008";#N/A,#N/A,TRUE,"PAGE009";#N/A,#N/A,TRUE,"PAGE010";#N/A,#N/A,TRUE,"PAGE011";#N/A,#N/A,TRUE,"PAGE012";#N/A,#N/A,TRUE,"PAGE013"}</definedName>
     <definedName name="보조기층" hidden="1">{"'장비'!$A$3:$M$12"}</definedName>
@@ -1625,7 +1624,7 @@
     <definedName name="ㅇㄴㅇㄴ" hidden="1">{#N/A,#N/A,FALSE,"포장2"}</definedName>
     <definedName name="ㅇㄷㄴㄶㅎ" hidden="1">{#N/A,#N/A,FALSE,"골재소요량";#N/A,#N/A,FALSE,"골재소요량"}</definedName>
     <definedName name="ㅇ롤옹롤ㅇ" hidden="1">{#N/A,#N/A,FALSE,"운반시간"}</definedName>
-    <definedName name="ㅇㅇㄹ" hidden="1">'[14]예산작성기준(전기)'!#REF!</definedName>
+    <definedName name="ㅇㅇㄹ" hidden="1">'[13]예산작성기준(전기)'!#REF!</definedName>
     <definedName name="ㅇ헝" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="아" hidden="1">{#N/A,#N/A,FALSE,"배수2"}</definedName>
     <definedName name="안" hidden="1">{#N/A,#N/A,FALSE,"포장2"}</definedName>
@@ -1659,7 +1658,7 @@
     <definedName name="자산" hidden="1">{#N/A,#N/A,TRUE,"LOADCOVE";#N/A,#N/A,TRUE,"PAGE001";#N/A,#N/A,TRUE,"PAGE002";#N/A,#N/A,TRUE,"PAGE003";#N/A,#N/A,TRUE,"PAGE004";#N/A,#N/A,TRUE,"PAGE005";#N/A,#N/A,TRUE,"PAGE006";#N/A,#N/A,TRUE,"PAGE007";#N/A,#N/A,TRUE,"PAGE008";#N/A,#N/A,TRUE,"PAGE009";#N/A,#N/A,TRUE,"PAGE010";#N/A,#N/A,TRUE,"PAGE011";#N/A,#N/A,TRUE,"PAGE012";#N/A,#N/A,TRUE,"PAGE013"}</definedName>
     <definedName name="자산1" hidden="1">{#N/A,#N/A,TRUE,"LOADCOVE";#N/A,#N/A,TRUE,"PAGE001";#N/A,#N/A,TRUE,"PAGE002";#N/A,#N/A,TRUE,"PAGE003";#N/A,#N/A,TRUE,"PAGE004";#N/A,#N/A,TRUE,"PAGE005";#N/A,#N/A,TRUE,"PAGE006";#N/A,#N/A,TRUE,"PAGE007";#N/A,#N/A,TRUE,"PAGE008";#N/A,#N/A,TRUE,"PAGE009";#N/A,#N/A,TRUE,"PAGE010";#N/A,#N/A,TRUE,"PAGE011";#N/A,#N/A,TRUE,"PAGE012";#N/A,#N/A,TRUE,"PAGE013"}</definedName>
     <definedName name="자운" hidden="1">#REF!</definedName>
-    <definedName name="잔교" hidden="1">[7]노임단가!#REF!</definedName>
+    <definedName name="잔교" hidden="1">[6]노임단가!#REF!</definedName>
     <definedName name="장동">BlankMacro1</definedName>
     <definedName name="장비">BlankMacro1</definedName>
     <definedName name="장비동원">BlankMacro1</definedName>
@@ -1672,7 +1671,7 @@
     <definedName name="전기내역" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="전열" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="제관공사" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
-    <definedName name="조직표현장" hidden="1">'[15]간접비 총괄표'!$I$10:$I$1248</definedName>
+    <definedName name="조직표현장" hidden="1">'[14]간접비 총괄표'!$I$10:$I$1248</definedName>
     <definedName name="중점추진" hidden="1">{#N/A,#N/A,TRUE,"LOADCOVE";#N/A,#N/A,TRUE,"PAGE001";#N/A,#N/A,TRUE,"PAGE002";#N/A,#N/A,TRUE,"PAGE003";#N/A,#N/A,TRUE,"PAGE004";#N/A,#N/A,TRUE,"PAGE005";#N/A,#N/A,TRUE,"PAGE006";#N/A,#N/A,TRUE,"PAGE007";#N/A,#N/A,TRUE,"PAGE008";#N/A,#N/A,TRUE,"PAGE009";#N/A,#N/A,TRUE,"PAGE010";#N/A,#N/A,TRUE,"PAGE011";#N/A,#N/A,TRUE,"PAGE012";#N/A,#N/A,TRUE,"PAGE013"}</definedName>
     <definedName name="진" hidden="1">{#N/A,#N/A,FALSE,"2~8번"}</definedName>
     <definedName name="집계" hidden="1">{#N/A,#N/A,FALSE,"명세표"}</definedName>
@@ -1745,7 +1744,7 @@
     <definedName name="해양인원" hidden="1">{#N/A,#N/A,TRUE,"LOADCOVE";#N/A,#N/A,TRUE,"PAGE001";#N/A,#N/A,TRUE,"PAGE002";#N/A,#N/A,TRUE,"PAGE003";#N/A,#N/A,TRUE,"PAGE004";#N/A,#N/A,TRUE,"PAGE005";#N/A,#N/A,TRUE,"PAGE006";#N/A,#N/A,TRUE,"PAGE007";#N/A,#N/A,TRUE,"PAGE008";#N/A,#N/A,TRUE,"PAGE009";#N/A,#N/A,TRUE,"PAGE010";#N/A,#N/A,TRUE,"PAGE011";#N/A,#N/A,TRUE,"PAGE012";#N/A,#N/A,TRUE,"PAGE013"}</definedName>
     <definedName name="해양중점3" hidden="1">{#N/A,#N/A,TRUE,"LOADCOVE";#N/A,#N/A,TRUE,"PAGE001";#N/A,#N/A,TRUE,"PAGE002";#N/A,#N/A,TRUE,"PAGE003";#N/A,#N/A,TRUE,"PAGE004";#N/A,#N/A,TRUE,"PAGE005";#N/A,#N/A,TRUE,"PAGE006";#N/A,#N/A,TRUE,"PAGE007";#N/A,#N/A,TRUE,"PAGE008";#N/A,#N/A,TRUE,"PAGE009";#N/A,#N/A,TRUE,"PAGE010";#N/A,#N/A,TRUE,"PAGE011";#N/A,#N/A,TRUE,"PAGE012";#N/A,#N/A,TRUE,"PAGE013"}</definedName>
     <definedName name="햐ㅓㅈ바허ㅏㅣ농하ㅗㅎ" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
-    <definedName name="현장" hidden="1">'[16]BREAKDOWN(철거설치)'!$CH$24</definedName>
+    <definedName name="현장" hidden="1">'[15]BREAKDOWN(철거설치)'!$CH$24</definedName>
     <definedName name="현장시공" hidden="1">{"'장비'!$A$3:$M$12"}</definedName>
     <definedName name="현장지도" hidden="1">{"'장비'!$A$3:$M$12"}</definedName>
     <definedName name="현지공사비" hidden="1">{"'장비'!$A$3:$M$12"}</definedName>
@@ -3777,20 +3776,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3827,6 +3814,18 @@
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14744,679 +14743,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="PROFIT"/>
-      <sheetName val="P-L"/>
-      <sheetName val="BUDg"/>
-      <sheetName val="예산"/>
-      <sheetName val="FAS"/>
-      <sheetName val="FCST"/>
-      <sheetName val="M_H"/>
-      <sheetName val="F_MONY"/>
-      <sheetName val="환보고"/>
-      <sheetName val="환자료"/>
-      <sheetName val="inter"/>
-      <sheetName val="노무비(MM)"/>
-      <sheetName val="노무비(비용)"/>
-      <sheetName val="공사비"/>
-      <sheetName val="Sheet6"/>
-      <sheetName val="Sheet7"/>
-      <sheetName val="Sheet8"/>
-      <sheetName val="Sheet9"/>
-      <sheetName val="Sheet10"/>
-      <sheetName val="Sheet11"/>
-      <sheetName val="Sheet12"/>
-      <sheetName val="Sheet13"/>
-      <sheetName val="Sheet14"/>
-      <sheetName val="Sheet15"/>
-      <sheetName val="Sheet16"/>
-      <sheetName val="Module1"/>
-      <sheetName val="Module2"/>
-      <sheetName val="Module3"/>
-      <sheetName val="COA-17"/>
-      <sheetName val="C-18"/>
-      <sheetName val="별총"/>
-      <sheetName val="갑지"/>
-      <sheetName val="h-013211-2"/>
-      <sheetName val="SHL"/>
-      <sheetName val="산근"/>
-      <sheetName val="총괄표"/>
-      <sheetName val="Plan"/>
-      <sheetName val="POWER"/>
-      <sheetName val="SG"/>
-      <sheetName val="인원계획"/>
-      <sheetName val="TTL"/>
-      <sheetName val="CAT_5"/>
-      <sheetName val="도"/>
-      <sheetName val="LinerWt"/>
-      <sheetName val="일위대가"/>
-      <sheetName val="기계내역서"/>
-      <sheetName val="12CGOU"/>
-      <sheetName val="INSTR"/>
-      <sheetName val="DESIGN"/>
-      <sheetName val="OCT.FDN"/>
-      <sheetName val="Summary Sheets"/>
-      <sheetName val="EQUIP LIST"/>
-      <sheetName val="CST_STAT"/>
-      <sheetName val="기준"/>
-      <sheetName val="Cash2"/>
-      <sheetName val="Z"/>
-      <sheetName val="공조위생"/>
-      <sheetName val="Input"/>
-      <sheetName val="Activity"/>
-      <sheetName val="Crew"/>
-      <sheetName val="Piping"/>
-      <sheetName val="Pipe Supports"/>
-      <sheetName val="VXXXXX"/>
-      <sheetName val="3. GROUNDING SYSTEM"/>
-      <sheetName val="boq"/>
-      <sheetName val="FILTER"/>
-      <sheetName val="blk"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Process Piping"/>
-      <sheetName val="대비표"/>
-      <sheetName val="EQT-ESTN"/>
-      <sheetName val="당진1,2호기전선관설치및접지4차공사내역서-을지"/>
-      <sheetName val="일위대가표"/>
-      <sheetName val="집계표"/>
-      <sheetName val="노임9월"/>
-      <sheetName val="WORK-VOL"/>
-      <sheetName val="9_Material Rates"/>
-      <sheetName val="1_References"/>
-      <sheetName val="실행내역"/>
-      <sheetName val="rate"/>
-      <sheetName val="단가"/>
-      <sheetName val="Project-A"/>
-      <sheetName val="Chart"/>
-      <sheetName val="EQUIP"/>
-      <sheetName val="견"/>
-      <sheetName val="보온자재단가표"/>
-      <sheetName val="작성기준"/>
-      <sheetName val="Alum."/>
-      <sheetName val="Data"/>
-      <sheetName val="Calc"/>
-      <sheetName val="LEGEND"/>
-      <sheetName val="look-up"/>
-      <sheetName val="AILC004"/>
-      <sheetName val="Fax"/>
-      <sheetName val="Material and Manpower data"/>
-      <sheetName val="Pricing Summary"/>
-      <sheetName val="B"/>
-      <sheetName val="P-HOT.XLS"/>
-      <sheetName val="내역서"/>
-      <sheetName val="SKETCH"/>
-      <sheetName val="2.2 STAFF Scedule"/>
-      <sheetName val="갑지1"/>
-      <sheetName val="PROCURE"/>
-      <sheetName val="조명시설"/>
-      <sheetName val="CALCULATION"/>
-      <sheetName val="PRO_DCI"/>
-      <sheetName val="INST_DCI"/>
-      <sheetName val="HVAC_DCI"/>
-      <sheetName val="PIPE_DCI"/>
-      <sheetName val="환율"/>
-      <sheetName val="CONTENTS"/>
-      <sheetName val="현장지지물물량"/>
-      <sheetName val="Code"/>
-      <sheetName val="금액내역서"/>
-      <sheetName val="steam table"/>
-      <sheetName val="WORK"/>
-      <sheetName val="HORI. VESSEL"/>
-      <sheetName val="BQ"/>
-      <sheetName val="@PRICE1"/>
-      <sheetName val="최종단가"/>
-      <sheetName val="#REF"/>
-      <sheetName val="장비"/>
-      <sheetName val="노무"/>
-      <sheetName val="자재"/>
-      <sheetName val="산근1"/>
-      <sheetName val="토목품셈"/>
-      <sheetName val="견적"/>
-      <sheetName val="General Data"/>
-      <sheetName val="Quantity"/>
-      <sheetName val="BQMPALOC"/>
-      <sheetName val="입출재고현황 (2)"/>
-      <sheetName val="AREA"/>
-      <sheetName val="바닥판"/>
-      <sheetName val="TYPE1"/>
-      <sheetName val="철근량"/>
-      <sheetName val="토목주소"/>
-      <sheetName val="프랜트면허"/>
-      <sheetName val="역T형"/>
-      <sheetName val="PILE"/>
-      <sheetName val="내역"/>
-      <sheetName val="초기화면"/>
-      <sheetName val="95삼성급(본사)"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Rate Analysis"/>
-      <sheetName val="Engg-Exec-2"/>
-      <sheetName val="Site-Precom-2"/>
-      <sheetName val="Collab"/>
-      <sheetName val="Transport"/>
-      <sheetName val="Civil 1"/>
-      <sheetName val="Civil 2"/>
-      <sheetName val="Civil 3"/>
-      <sheetName val="Site 1"/>
-      <sheetName val="Site 2"/>
-      <sheetName val="Site 3"/>
-      <sheetName val="Site Faci"/>
-      <sheetName val="Cont"/>
-      <sheetName val="Engg-Exec-1"/>
-      <sheetName val="Site-Precom-1"/>
-      <sheetName val="Site-Precom-Vendor"/>
-      <sheetName val="Risk-Anal"/>
-      <sheetName val="Ranges"/>
-      <sheetName val="User"/>
-      <sheetName val="insulation"/>
-      <sheetName val="Sheet5"/>
-      <sheetName val="97 사업추정(WEKI)"/>
-      <sheetName val="GiaVL"/>
-      <sheetName val="Code_Magics"/>
-      <sheetName val="MP MOB"/>
-      <sheetName val="Inst Matl Table"/>
-      <sheetName val="Inst_Type"/>
-      <sheetName val="Loop Type"/>
-      <sheetName val="Tracing"/>
-      <sheetName val="Hookup"/>
-      <sheetName val="WBS"/>
-      <sheetName val="재료비"/>
-      <sheetName val="Man Hole"/>
-      <sheetName val="대로근거"/>
-      <sheetName val="중로근거"/>
-      <sheetName val="조건표"/>
-      <sheetName val="내역표지"/>
-      <sheetName val="산출2-기기동력"/>
-      <sheetName val="40총괄"/>
-      <sheetName val="40집계"/>
-      <sheetName val="30신설일위대가"/>
-      <sheetName val="30집계표"/>
-      <sheetName val="NSCP견적물량"/>
-      <sheetName val="경비"/>
-      <sheetName val="찍기"/>
-      <sheetName val="TABLES"/>
-      <sheetName val="GROUNDING SYSTEM"/>
-      <sheetName val="El(Increased)"/>
-      <sheetName val="집계표(OPTION)"/>
-      <sheetName val="1. 설계조건 2.단면가정 3. 하중계산"/>
-      <sheetName val="DATA 입력란"/>
-      <sheetName val="공사비예산서(토목분)"/>
-      <sheetName val="가격조사서"/>
-      <sheetName val="연돌일위집계"/>
-      <sheetName val="HANDHOLE(2)"/>
-      <sheetName val="PAD TR보호대기초"/>
-      <sheetName val="가로등기초"/>
-      <sheetName val="Civil"/>
-      <sheetName val="DB@Acess"/>
-      <sheetName val="공사내역"/>
-      <sheetName val="D-3109"/>
-      <sheetName val="당초"/>
-      <sheetName val="배명(단가)"/>
-      <sheetName val="TANK"/>
-      <sheetName val="LTR-2"/>
-      <sheetName val="Car park lease"/>
-      <sheetName val="C1"/>
-      <sheetName val="sum1 (2)"/>
-      <sheetName val="s"/>
-      <sheetName val="대비"/>
-      <sheetName val="철근단위중량"/>
-      <sheetName val="단면가정"/>
-      <sheetName val="설계조건"/>
-      <sheetName val="PI"/>
-      <sheetName val="Master_Data"/>
-      <sheetName val="8.PILE  (돌출)"/>
-      <sheetName val="CTEMCOST"/>
-      <sheetName val="부하(성남)"/>
-      <sheetName val="SILICATE"/>
-      <sheetName val="Default"/>
-      <sheetName val="Utility and Fire flange"/>
-      <sheetName val="IBASE"/>
-      <sheetName val="소화실적"/>
-      <sheetName val="SCHEDULE"/>
-      <sheetName val="bldg list"/>
-      <sheetName val="L V Separator"/>
-      <sheetName val="Eq. Mobilization"/>
-      <sheetName val="노임단가"/>
-      <sheetName val="DRUM"/>
-      <sheetName val="계수시트"/>
-      <sheetName val="MTO REV.2(ARMOR)"/>
-      <sheetName val="Steel-Main Work"/>
-      <sheetName val="parts-V2"/>
-      <sheetName val="전기"/>
-      <sheetName val="ABB"/>
-      <sheetName val="C-301E~305E"/>
-      <sheetName val="M3산출"/>
-      <sheetName val="SM1-09"/>
-      <sheetName val="SM2-09"/>
-      <sheetName val="BAND(200)"/>
-      <sheetName val="BD-09"/>
-      <sheetName val="EL 표면적"/>
-      <sheetName val="MT-09"/>
-      <sheetName val="980731"/>
-      <sheetName val="실행철강하도"/>
-      <sheetName val="jobhist"/>
-      <sheetName val="DATE"/>
-      <sheetName val="MK2-1"/>
-      <sheetName val="초임연봉"/>
-      <sheetName val="시가지우회도로공내역서"/>
-      <sheetName val="TOTAL"/>
-      <sheetName val="영업소실적"/>
-      <sheetName val="D2old"/>
-      <sheetName val="D2"/>
-      <sheetName val="D1.1"/>
-      <sheetName val="Library"/>
-      <sheetName val="D1X"/>
-      <sheetName val="D2X"/>
-      <sheetName val="D2.1"/>
-      <sheetName val="Checklist"/>
-      <sheetName val="D4"/>
-      <sheetName val="Administrative Prices"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Proj Cost Sumry"/>
-      <sheetName val="Wt of Mod."/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Ex-Rate"/>
-      <sheetName val="날개벽(좌,우=60도-4개)"/>
-      <sheetName val="BM"/>
-      <sheetName val="2000년1차"/>
-      <sheetName val="Bid Summary"/>
-      <sheetName val="eq_data"/>
-      <sheetName val="장비검사 사진"/>
-      <sheetName val="15100"/>
-      <sheetName val="SPEC"/>
-      <sheetName val="EAS"/>
-      <sheetName val="HX"/>
-      <sheetName val="백분율"/>
-      <sheetName val="DHEQSUPT"/>
-      <sheetName val="Engineering"/>
-      <sheetName val="PriceSummary"/>
-      <sheetName val="토공정보"/>
-      <sheetName val="두앙"/>
-      <sheetName val="2"/>
-      <sheetName val="Summary_Sheets"/>
-      <sheetName val="OCT_FDN"/>
-      <sheetName val="Pipe_Supports"/>
-      <sheetName val="Process_Piping"/>
-      <sheetName val="EQUIP_LIST"/>
-      <sheetName val="9_Material_Rates"/>
-      <sheetName val="3__GROUNDING_SYSTEM"/>
-      <sheetName val="Material_and_Manpower_data"/>
-      <sheetName val="Pricing_Summary"/>
-      <sheetName val="Alum_"/>
-      <sheetName val="P-HOT_XLS"/>
-      <sheetName val="steam_table"/>
-      <sheetName val="2_2_STAFF_Scedule"/>
-      <sheetName val="Civil_1"/>
-      <sheetName val="Civil_2"/>
-      <sheetName val="Civil_3"/>
-      <sheetName val="Site_1"/>
-      <sheetName val="Site_2"/>
-      <sheetName val="Site_3"/>
-      <sheetName val="Site_Faci"/>
-      <sheetName val="Rate_Analysis"/>
-      <sheetName val="HORI__VESSEL"/>
-      <sheetName val="입출재고현황_(2)"/>
-      <sheetName val="Man_Hole"/>
-      <sheetName val="MP_MOB"/>
-      <sheetName val="GROUNDING_SYSTEM"/>
-      <sheetName val="97_사업추정(WEKI)"/>
-      <sheetName val="Inst_Matl_Table"/>
-      <sheetName val="Loop_Type"/>
-      <sheetName val="PAD_TR보호대기초"/>
-      <sheetName val="1__설계조건_2_단면가정_3__하중계산"/>
-      <sheetName val="DATA_입력란"/>
-      <sheetName val="General_Data"/>
-      <sheetName val="Car_park_lease"/>
-      <sheetName val="Utility_and_Fire_flange"/>
-      <sheetName val="sum1_(2)"/>
-      <sheetName val="L_V_Separator"/>
-      <sheetName val="Eq__Mobilization"/>
-      <sheetName val="8_PILE__(돌출)"/>
-      <sheetName val="bldg_list"/>
-      <sheetName val="IN"/>
-      <sheetName val="CASH"/>
-      <sheetName val="MEXICO-C"/>
-      <sheetName val="골조시행"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-      <sheetData sheetId="59" refreshError="1"/>
-      <sheetData sheetId="60" refreshError="1"/>
-      <sheetData sheetId="61" refreshError="1"/>
-      <sheetData sheetId="62" refreshError="1"/>
-      <sheetData sheetId="63" refreshError="1"/>
-      <sheetData sheetId="64" refreshError="1"/>
-      <sheetData sheetId="65" refreshError="1"/>
-      <sheetData sheetId="66" refreshError="1"/>
-      <sheetData sheetId="67" refreshError="1"/>
-      <sheetData sheetId="68" refreshError="1"/>
-      <sheetData sheetId="69" refreshError="1"/>
-      <sheetData sheetId="70" refreshError="1"/>
-      <sheetData sheetId="71" refreshError="1"/>
-      <sheetData sheetId="72" refreshError="1"/>
-      <sheetData sheetId="73" refreshError="1"/>
-      <sheetData sheetId="74" refreshError="1"/>
-      <sheetData sheetId="75" refreshError="1"/>
-      <sheetData sheetId="76" refreshError="1"/>
-      <sheetData sheetId="77" refreshError="1"/>
-      <sheetData sheetId="78" refreshError="1"/>
-      <sheetData sheetId="79" refreshError="1"/>
-      <sheetData sheetId="80" refreshError="1"/>
-      <sheetData sheetId="81" refreshError="1"/>
-      <sheetData sheetId="82" refreshError="1"/>
-      <sheetData sheetId="83" refreshError="1"/>
-      <sheetData sheetId="84" refreshError="1"/>
-      <sheetData sheetId="85" refreshError="1"/>
-      <sheetData sheetId="86" refreshError="1"/>
-      <sheetData sheetId="87" refreshError="1"/>
-      <sheetData sheetId="88" refreshError="1"/>
-      <sheetData sheetId="89" refreshError="1"/>
-      <sheetData sheetId="90" refreshError="1"/>
-      <sheetData sheetId="91" refreshError="1"/>
-      <sheetData sheetId="92" refreshError="1"/>
-      <sheetData sheetId="93" refreshError="1"/>
-      <sheetData sheetId="94" refreshError="1"/>
-      <sheetData sheetId="95" refreshError="1"/>
-      <sheetData sheetId="96" refreshError="1"/>
-      <sheetData sheetId="97" refreshError="1"/>
-      <sheetData sheetId="98" refreshError="1"/>
-      <sheetData sheetId="99" refreshError="1"/>
-      <sheetData sheetId="100" refreshError="1"/>
-      <sheetData sheetId="101" refreshError="1"/>
-      <sheetData sheetId="102" refreshError="1"/>
-      <sheetData sheetId="103" refreshError="1"/>
-      <sheetData sheetId="104" refreshError="1"/>
-      <sheetData sheetId="105" refreshError="1"/>
-      <sheetData sheetId="106" refreshError="1"/>
-      <sheetData sheetId="107" refreshError="1"/>
-      <sheetData sheetId="108" refreshError="1"/>
-      <sheetData sheetId="109" refreshError="1"/>
-      <sheetData sheetId="110" refreshError="1"/>
-      <sheetData sheetId="111" refreshError="1"/>
-      <sheetData sheetId="112" refreshError="1"/>
-      <sheetData sheetId="113" refreshError="1"/>
-      <sheetData sheetId="114" refreshError="1"/>
-      <sheetData sheetId="115" refreshError="1"/>
-      <sheetData sheetId="116" refreshError="1"/>
-      <sheetData sheetId="117" refreshError="1"/>
-      <sheetData sheetId="118" refreshError="1"/>
-      <sheetData sheetId="119" refreshError="1"/>
-      <sheetData sheetId="120" refreshError="1"/>
-      <sheetData sheetId="121" refreshError="1"/>
-      <sheetData sheetId="122" refreshError="1"/>
-      <sheetData sheetId="123" refreshError="1"/>
-      <sheetData sheetId="124" refreshError="1"/>
-      <sheetData sheetId="125" refreshError="1"/>
-      <sheetData sheetId="126" refreshError="1"/>
-      <sheetData sheetId="127" refreshError="1"/>
-      <sheetData sheetId="128" refreshError="1"/>
-      <sheetData sheetId="129" refreshError="1"/>
-      <sheetData sheetId="130" refreshError="1"/>
-      <sheetData sheetId="131" refreshError="1"/>
-      <sheetData sheetId="132" refreshError="1"/>
-      <sheetData sheetId="133" refreshError="1"/>
-      <sheetData sheetId="134" refreshError="1"/>
-      <sheetData sheetId="135" refreshError="1"/>
-      <sheetData sheetId="136" refreshError="1"/>
-      <sheetData sheetId="137" refreshError="1"/>
-      <sheetData sheetId="138" refreshError="1"/>
-      <sheetData sheetId="139" refreshError="1"/>
-      <sheetData sheetId="140" refreshError="1"/>
-      <sheetData sheetId="141" refreshError="1"/>
-      <sheetData sheetId="142" refreshError="1"/>
-      <sheetData sheetId="143" refreshError="1"/>
-      <sheetData sheetId="144" refreshError="1"/>
-      <sheetData sheetId="145" refreshError="1"/>
-      <sheetData sheetId="146" refreshError="1"/>
-      <sheetData sheetId="147" refreshError="1"/>
-      <sheetData sheetId="148" refreshError="1"/>
-      <sheetData sheetId="149" refreshError="1"/>
-      <sheetData sheetId="150" refreshError="1"/>
-      <sheetData sheetId="151" refreshError="1"/>
-      <sheetData sheetId="152" refreshError="1"/>
-      <sheetData sheetId="153" refreshError="1"/>
-      <sheetData sheetId="154" refreshError="1"/>
-      <sheetData sheetId="155" refreshError="1"/>
-      <sheetData sheetId="156" refreshError="1"/>
-      <sheetData sheetId="157" refreshError="1"/>
-      <sheetData sheetId="158" refreshError="1"/>
-      <sheetData sheetId="159" refreshError="1"/>
-      <sheetData sheetId="160" refreshError="1"/>
-      <sheetData sheetId="161" refreshError="1"/>
-      <sheetData sheetId="162" refreshError="1"/>
-      <sheetData sheetId="163" refreshError="1"/>
-      <sheetData sheetId="164" refreshError="1"/>
-      <sheetData sheetId="165" refreshError="1"/>
-      <sheetData sheetId="166" refreshError="1"/>
-      <sheetData sheetId="167" refreshError="1"/>
-      <sheetData sheetId="168" refreshError="1"/>
-      <sheetData sheetId="169" refreshError="1"/>
-      <sheetData sheetId="170" refreshError="1"/>
-      <sheetData sheetId="171" refreshError="1"/>
-      <sheetData sheetId="172" refreshError="1"/>
-      <sheetData sheetId="173" refreshError="1"/>
-      <sheetData sheetId="174" refreshError="1"/>
-      <sheetData sheetId="175" refreshError="1"/>
-      <sheetData sheetId="176" refreshError="1"/>
-      <sheetData sheetId="177" refreshError="1"/>
-      <sheetData sheetId="178" refreshError="1"/>
-      <sheetData sheetId="179" refreshError="1"/>
-      <sheetData sheetId="180" refreshError="1"/>
-      <sheetData sheetId="181" refreshError="1"/>
-      <sheetData sheetId="182" refreshError="1"/>
-      <sheetData sheetId="183" refreshError="1"/>
-      <sheetData sheetId="184" refreshError="1"/>
-      <sheetData sheetId="185" refreshError="1"/>
-      <sheetData sheetId="186" refreshError="1"/>
-      <sheetData sheetId="187" refreshError="1"/>
-      <sheetData sheetId="188" refreshError="1"/>
-      <sheetData sheetId="189" refreshError="1"/>
-      <sheetData sheetId="190" refreshError="1"/>
-      <sheetData sheetId="191" refreshError="1"/>
-      <sheetData sheetId="192" refreshError="1"/>
-      <sheetData sheetId="193" refreshError="1"/>
-      <sheetData sheetId="194" refreshError="1"/>
-      <sheetData sheetId="195" refreshError="1"/>
-      <sheetData sheetId="196" refreshError="1"/>
-      <sheetData sheetId="197" refreshError="1"/>
-      <sheetData sheetId="198" refreshError="1"/>
-      <sheetData sheetId="199" refreshError="1"/>
-      <sheetData sheetId="200" refreshError="1"/>
-      <sheetData sheetId="201" refreshError="1"/>
-      <sheetData sheetId="202" refreshError="1"/>
-      <sheetData sheetId="203" refreshError="1"/>
-      <sheetData sheetId="204" refreshError="1"/>
-      <sheetData sheetId="205" refreshError="1"/>
-      <sheetData sheetId="206" refreshError="1"/>
-      <sheetData sheetId="207" refreshError="1"/>
-      <sheetData sheetId="208" refreshError="1"/>
-      <sheetData sheetId="209" refreshError="1"/>
-      <sheetData sheetId="210" refreshError="1"/>
-      <sheetData sheetId="211" refreshError="1"/>
-      <sheetData sheetId="212" refreshError="1"/>
-      <sheetData sheetId="213" refreshError="1"/>
-      <sheetData sheetId="214" refreshError="1"/>
-      <sheetData sheetId="215" refreshError="1"/>
-      <sheetData sheetId="216" refreshError="1"/>
-      <sheetData sheetId="217" refreshError="1"/>
-      <sheetData sheetId="218" refreshError="1"/>
-      <sheetData sheetId="219" refreshError="1"/>
-      <sheetData sheetId="220" refreshError="1"/>
-      <sheetData sheetId="221" refreshError="1"/>
-      <sheetData sheetId="222" refreshError="1"/>
-      <sheetData sheetId="223" refreshError="1"/>
-      <sheetData sheetId="224" refreshError="1"/>
-      <sheetData sheetId="225" refreshError="1"/>
-      <sheetData sheetId="226" refreshError="1"/>
-      <sheetData sheetId="227" refreshError="1"/>
-      <sheetData sheetId="228" refreshError="1"/>
-      <sheetData sheetId="229" refreshError="1"/>
-      <sheetData sheetId="230" refreshError="1"/>
-      <sheetData sheetId="231" refreshError="1"/>
-      <sheetData sheetId="232" refreshError="1"/>
-      <sheetData sheetId="233" refreshError="1"/>
-      <sheetData sheetId="234" refreshError="1"/>
-      <sheetData sheetId="235" refreshError="1"/>
-      <sheetData sheetId="236" refreshError="1"/>
-      <sheetData sheetId="237" refreshError="1"/>
-      <sheetData sheetId="238" refreshError="1"/>
-      <sheetData sheetId="239" refreshError="1"/>
-      <sheetData sheetId="240" refreshError="1"/>
-      <sheetData sheetId="241" refreshError="1"/>
-      <sheetData sheetId="242" refreshError="1"/>
-      <sheetData sheetId="243" refreshError="1"/>
-      <sheetData sheetId="244" refreshError="1"/>
-      <sheetData sheetId="245" refreshError="1"/>
-      <sheetData sheetId="246" refreshError="1"/>
-      <sheetData sheetId="247" refreshError="1"/>
-      <sheetData sheetId="248" refreshError="1"/>
-      <sheetData sheetId="249" refreshError="1"/>
-      <sheetData sheetId="250" refreshError="1"/>
-      <sheetData sheetId="251" refreshError="1"/>
-      <sheetData sheetId="252" refreshError="1"/>
-      <sheetData sheetId="253" refreshError="1"/>
-      <sheetData sheetId="254" refreshError="1"/>
-      <sheetData sheetId="255" refreshError="1"/>
-      <sheetData sheetId="256" refreshError="1"/>
-      <sheetData sheetId="257" refreshError="1"/>
-      <sheetData sheetId="258" refreshError="1"/>
-      <sheetData sheetId="259" refreshError="1"/>
-      <sheetData sheetId="260" refreshError="1"/>
-      <sheetData sheetId="261" refreshError="1"/>
-      <sheetData sheetId="262" refreshError="1"/>
-      <sheetData sheetId="263" refreshError="1"/>
-      <sheetData sheetId="264" refreshError="1"/>
-      <sheetData sheetId="265" refreshError="1"/>
-      <sheetData sheetId="266" refreshError="1"/>
-      <sheetData sheetId="267" refreshError="1"/>
-      <sheetData sheetId="268" refreshError="1"/>
-      <sheetData sheetId="269" refreshError="1"/>
-      <sheetData sheetId="270" refreshError="1"/>
-      <sheetData sheetId="271" refreshError="1"/>
-      <sheetData sheetId="272" refreshError="1"/>
-      <sheetData sheetId="273" refreshError="1"/>
-      <sheetData sheetId="274" refreshError="1"/>
-      <sheetData sheetId="275" refreshError="1"/>
-      <sheetData sheetId="276" refreshError="1"/>
-      <sheetData sheetId="277" refreshError="1"/>
-      <sheetData sheetId="278" refreshError="1"/>
-      <sheetData sheetId="279" refreshError="1"/>
-      <sheetData sheetId="280" refreshError="1"/>
-      <sheetData sheetId="281" refreshError="1"/>
-      <sheetData sheetId="282" refreshError="1"/>
-      <sheetData sheetId="283" refreshError="1"/>
-      <sheetData sheetId="284" refreshError="1"/>
-      <sheetData sheetId="285" refreshError="1"/>
-      <sheetData sheetId="286" refreshError="1"/>
-      <sheetData sheetId="287"/>
-      <sheetData sheetId="288"/>
-      <sheetData sheetId="289"/>
-      <sheetData sheetId="290"/>
-      <sheetData sheetId="291"/>
-      <sheetData sheetId="292"/>
-      <sheetData sheetId="293"/>
-      <sheetData sheetId="294"/>
-      <sheetData sheetId="295"/>
-      <sheetData sheetId="296"/>
-      <sheetData sheetId="297"/>
-      <sheetData sheetId="298"/>
-      <sheetData sheetId="299"/>
-      <sheetData sheetId="300"/>
-      <sheetData sheetId="301"/>
-      <sheetData sheetId="302"/>
-      <sheetData sheetId="303"/>
-      <sheetData sheetId="304"/>
-      <sheetData sheetId="305"/>
-      <sheetData sheetId="306"/>
-      <sheetData sheetId="307"/>
-      <sheetData sheetId="308"/>
-      <sheetData sheetId="309"/>
-      <sheetData sheetId="310"/>
-      <sheetData sheetId="311"/>
-      <sheetData sheetId="312" refreshError="1"/>
-      <sheetData sheetId="313" refreshError="1"/>
-      <sheetData sheetId="314" refreshError="1"/>
-      <sheetData sheetId="315" refreshError="1"/>
-      <sheetData sheetId="316" refreshError="1"/>
-      <sheetData sheetId="317" refreshError="1"/>
-      <sheetData sheetId="318" refreshError="1"/>
-      <sheetData sheetId="319" refreshError="1"/>
-      <sheetData sheetId="320" refreshError="1"/>
-      <sheetData sheetId="321" refreshError="1"/>
-      <sheetData sheetId="322" refreshError="1"/>
-      <sheetData sheetId="323" refreshError="1"/>
-      <sheetData sheetId="324" refreshError="1"/>
-      <sheetData sheetId="325" refreshError="1"/>
-      <sheetData sheetId="326" refreshError="1"/>
-      <sheetData sheetId="327" refreshError="1"/>
-      <sheetData sheetId="328" refreshError="1"/>
-      <sheetData sheetId="329" refreshError="1"/>
-      <sheetData sheetId="330" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="SUMMARY"/>
       <sheetName val="배관집계표"/>
       <sheetName val="기계내역서"/>
@@ -16592,7 +15918,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -16763,7 +16089,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -19486,7 +18812,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -19523,7 +18849,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -19656,7 +18982,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -19962,60 +19288,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Family 개요"/>
-      <sheetName val="적용 규칙"/>
-      <sheetName val="Dynamo"/>
-      <sheetName val="물량Param"/>
-      <sheetName val="Family 구성도"/>
-      <sheetName val="1.Floors"/>
-      <sheetName val="2.Roofs"/>
-      <sheetName val="3.Walls"/>
-      <sheetName val="4.St Fdn"/>
-      <sheetName val="5.St Col"/>
-      <sheetName val="6.St Framing"/>
-      <sheetName val="7.Ceilings"/>
-      <sheetName val="8.Doors"/>
-      <sheetName val="9.Windows"/>
-      <sheetName val="10.Stairs"/>
-      <sheetName val="11.Railings"/>
-      <sheetName val="13.Generic"/>
-      <sheetName val="(AR) BOQ "/>
-      <sheetName val="WM-AR"/>
-      <sheetName val="3D Standard"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -20898,7 +20170,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -26189,7 +25461,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -30908,7 +30180,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -31627,7 +30899,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -36482,7 +35754,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -38245,7 +37517,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -38832,6 +38104,679 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PROFIT"/>
+      <sheetName val="P-L"/>
+      <sheetName val="BUDg"/>
+      <sheetName val="예산"/>
+      <sheetName val="FAS"/>
+      <sheetName val="FCST"/>
+      <sheetName val="M_H"/>
+      <sheetName val="F_MONY"/>
+      <sheetName val="환보고"/>
+      <sheetName val="환자료"/>
+      <sheetName val="inter"/>
+      <sheetName val="노무비(MM)"/>
+      <sheetName val="노무비(비용)"/>
+      <sheetName val="공사비"/>
+      <sheetName val="Sheet6"/>
+      <sheetName val="Sheet7"/>
+      <sheetName val="Sheet8"/>
+      <sheetName val="Sheet9"/>
+      <sheetName val="Sheet10"/>
+      <sheetName val="Sheet11"/>
+      <sheetName val="Sheet12"/>
+      <sheetName val="Sheet13"/>
+      <sheetName val="Sheet14"/>
+      <sheetName val="Sheet15"/>
+      <sheetName val="Sheet16"/>
+      <sheetName val="Module1"/>
+      <sheetName val="Module2"/>
+      <sheetName val="Module3"/>
+      <sheetName val="COA-17"/>
+      <sheetName val="C-18"/>
+      <sheetName val="별총"/>
+      <sheetName val="갑지"/>
+      <sheetName val="h-013211-2"/>
+      <sheetName val="SHL"/>
+      <sheetName val="산근"/>
+      <sheetName val="총괄표"/>
+      <sheetName val="Plan"/>
+      <sheetName val="POWER"/>
+      <sheetName val="SG"/>
+      <sheetName val="인원계획"/>
+      <sheetName val="TTL"/>
+      <sheetName val="CAT_5"/>
+      <sheetName val="도"/>
+      <sheetName val="LinerWt"/>
+      <sheetName val="일위대가"/>
+      <sheetName val="기계내역서"/>
+      <sheetName val="12CGOU"/>
+      <sheetName val="INSTR"/>
+      <sheetName val="DESIGN"/>
+      <sheetName val="OCT.FDN"/>
+      <sheetName val="Summary Sheets"/>
+      <sheetName val="EQUIP LIST"/>
+      <sheetName val="CST_STAT"/>
+      <sheetName val="기준"/>
+      <sheetName val="Cash2"/>
+      <sheetName val="Z"/>
+      <sheetName val="공조위생"/>
+      <sheetName val="Input"/>
+      <sheetName val="Activity"/>
+      <sheetName val="Crew"/>
+      <sheetName val="Piping"/>
+      <sheetName val="Pipe Supports"/>
+      <sheetName val="VXXXXX"/>
+      <sheetName val="3. GROUNDING SYSTEM"/>
+      <sheetName val="boq"/>
+      <sheetName val="FILTER"/>
+      <sheetName val="blk"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Process Piping"/>
+      <sheetName val="대비표"/>
+      <sheetName val="EQT-ESTN"/>
+      <sheetName val="당진1,2호기전선관설치및접지4차공사내역서-을지"/>
+      <sheetName val="일위대가표"/>
+      <sheetName val="집계표"/>
+      <sheetName val="노임9월"/>
+      <sheetName val="WORK-VOL"/>
+      <sheetName val="9_Material Rates"/>
+      <sheetName val="1_References"/>
+      <sheetName val="실행내역"/>
+      <sheetName val="rate"/>
+      <sheetName val="단가"/>
+      <sheetName val="Project-A"/>
+      <sheetName val="Chart"/>
+      <sheetName val="EQUIP"/>
+      <sheetName val="견"/>
+      <sheetName val="보온자재단가표"/>
+      <sheetName val="작성기준"/>
+      <sheetName val="Alum."/>
+      <sheetName val="Data"/>
+      <sheetName val="Calc"/>
+      <sheetName val="LEGEND"/>
+      <sheetName val="look-up"/>
+      <sheetName val="AILC004"/>
+      <sheetName val="Fax"/>
+      <sheetName val="Material and Manpower data"/>
+      <sheetName val="Pricing Summary"/>
+      <sheetName val="B"/>
+      <sheetName val="P-HOT.XLS"/>
+      <sheetName val="내역서"/>
+      <sheetName val="SKETCH"/>
+      <sheetName val="2.2 STAFF Scedule"/>
+      <sheetName val="갑지1"/>
+      <sheetName val="PROCURE"/>
+      <sheetName val="조명시설"/>
+      <sheetName val="CALCULATION"/>
+      <sheetName val="PRO_DCI"/>
+      <sheetName val="INST_DCI"/>
+      <sheetName val="HVAC_DCI"/>
+      <sheetName val="PIPE_DCI"/>
+      <sheetName val="환율"/>
+      <sheetName val="CONTENTS"/>
+      <sheetName val="현장지지물물량"/>
+      <sheetName val="Code"/>
+      <sheetName val="금액내역서"/>
+      <sheetName val="steam table"/>
+      <sheetName val="WORK"/>
+      <sheetName val="HORI. VESSEL"/>
+      <sheetName val="BQ"/>
+      <sheetName val="@PRICE1"/>
+      <sheetName val="최종단가"/>
+      <sheetName val="#REF"/>
+      <sheetName val="장비"/>
+      <sheetName val="노무"/>
+      <sheetName val="자재"/>
+      <sheetName val="산근1"/>
+      <sheetName val="토목품셈"/>
+      <sheetName val="견적"/>
+      <sheetName val="General Data"/>
+      <sheetName val="Quantity"/>
+      <sheetName val="BQMPALOC"/>
+      <sheetName val="입출재고현황 (2)"/>
+      <sheetName val="AREA"/>
+      <sheetName val="바닥판"/>
+      <sheetName val="TYPE1"/>
+      <sheetName val="철근량"/>
+      <sheetName val="토목주소"/>
+      <sheetName val="프랜트면허"/>
+      <sheetName val="역T형"/>
+      <sheetName val="PILE"/>
+      <sheetName val="내역"/>
+      <sheetName val="초기화면"/>
+      <sheetName val="95삼성급(본사)"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Rate Analysis"/>
+      <sheetName val="Engg-Exec-2"/>
+      <sheetName val="Site-Precom-2"/>
+      <sheetName val="Collab"/>
+      <sheetName val="Transport"/>
+      <sheetName val="Civil 1"/>
+      <sheetName val="Civil 2"/>
+      <sheetName val="Civil 3"/>
+      <sheetName val="Site 1"/>
+      <sheetName val="Site 2"/>
+      <sheetName val="Site 3"/>
+      <sheetName val="Site Faci"/>
+      <sheetName val="Cont"/>
+      <sheetName val="Engg-Exec-1"/>
+      <sheetName val="Site-Precom-1"/>
+      <sheetName val="Site-Precom-Vendor"/>
+      <sheetName val="Risk-Anal"/>
+      <sheetName val="Ranges"/>
+      <sheetName val="User"/>
+      <sheetName val="insulation"/>
+      <sheetName val="Sheet5"/>
+      <sheetName val="97 사업추정(WEKI)"/>
+      <sheetName val="GiaVL"/>
+      <sheetName val="Code_Magics"/>
+      <sheetName val="MP MOB"/>
+      <sheetName val="Inst Matl Table"/>
+      <sheetName val="Inst_Type"/>
+      <sheetName val="Loop Type"/>
+      <sheetName val="Tracing"/>
+      <sheetName val="Hookup"/>
+      <sheetName val="WBS"/>
+      <sheetName val="재료비"/>
+      <sheetName val="Man Hole"/>
+      <sheetName val="대로근거"/>
+      <sheetName val="중로근거"/>
+      <sheetName val="조건표"/>
+      <sheetName val="내역표지"/>
+      <sheetName val="산출2-기기동력"/>
+      <sheetName val="40총괄"/>
+      <sheetName val="40집계"/>
+      <sheetName val="30신설일위대가"/>
+      <sheetName val="30집계표"/>
+      <sheetName val="NSCP견적물량"/>
+      <sheetName val="경비"/>
+      <sheetName val="찍기"/>
+      <sheetName val="TABLES"/>
+      <sheetName val="GROUNDING SYSTEM"/>
+      <sheetName val="El(Increased)"/>
+      <sheetName val="집계표(OPTION)"/>
+      <sheetName val="1. 설계조건 2.단면가정 3. 하중계산"/>
+      <sheetName val="DATA 입력란"/>
+      <sheetName val="공사비예산서(토목분)"/>
+      <sheetName val="가격조사서"/>
+      <sheetName val="연돌일위집계"/>
+      <sheetName val="HANDHOLE(2)"/>
+      <sheetName val="PAD TR보호대기초"/>
+      <sheetName val="가로등기초"/>
+      <sheetName val="Civil"/>
+      <sheetName val="DB@Acess"/>
+      <sheetName val="공사내역"/>
+      <sheetName val="D-3109"/>
+      <sheetName val="당초"/>
+      <sheetName val="배명(단가)"/>
+      <sheetName val="TANK"/>
+      <sheetName val="LTR-2"/>
+      <sheetName val="Car park lease"/>
+      <sheetName val="C1"/>
+      <sheetName val="sum1 (2)"/>
+      <sheetName val="s"/>
+      <sheetName val="대비"/>
+      <sheetName val="철근단위중량"/>
+      <sheetName val="단면가정"/>
+      <sheetName val="설계조건"/>
+      <sheetName val="PI"/>
+      <sheetName val="Master_Data"/>
+      <sheetName val="8.PILE  (돌출)"/>
+      <sheetName val="CTEMCOST"/>
+      <sheetName val="부하(성남)"/>
+      <sheetName val="SILICATE"/>
+      <sheetName val="Default"/>
+      <sheetName val="Utility and Fire flange"/>
+      <sheetName val="IBASE"/>
+      <sheetName val="소화실적"/>
+      <sheetName val="SCHEDULE"/>
+      <sheetName val="bldg list"/>
+      <sheetName val="L V Separator"/>
+      <sheetName val="Eq. Mobilization"/>
+      <sheetName val="노임단가"/>
+      <sheetName val="DRUM"/>
+      <sheetName val="계수시트"/>
+      <sheetName val="MTO REV.2(ARMOR)"/>
+      <sheetName val="Steel-Main Work"/>
+      <sheetName val="parts-V2"/>
+      <sheetName val="전기"/>
+      <sheetName val="ABB"/>
+      <sheetName val="C-301E~305E"/>
+      <sheetName val="M3산출"/>
+      <sheetName val="SM1-09"/>
+      <sheetName val="SM2-09"/>
+      <sheetName val="BAND(200)"/>
+      <sheetName val="BD-09"/>
+      <sheetName val="EL 표면적"/>
+      <sheetName val="MT-09"/>
+      <sheetName val="980731"/>
+      <sheetName val="실행철강하도"/>
+      <sheetName val="jobhist"/>
+      <sheetName val="DATE"/>
+      <sheetName val="MK2-1"/>
+      <sheetName val="초임연봉"/>
+      <sheetName val="시가지우회도로공내역서"/>
+      <sheetName val="TOTAL"/>
+      <sheetName val="영업소실적"/>
+      <sheetName val="D2old"/>
+      <sheetName val="D2"/>
+      <sheetName val="D1.1"/>
+      <sheetName val="Library"/>
+      <sheetName val="D1X"/>
+      <sheetName val="D2X"/>
+      <sheetName val="D2.1"/>
+      <sheetName val="Checklist"/>
+      <sheetName val="D4"/>
+      <sheetName val="Administrative Prices"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Proj Cost Sumry"/>
+      <sheetName val="Wt of Mod."/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Ex-Rate"/>
+      <sheetName val="날개벽(좌,우=60도-4개)"/>
+      <sheetName val="BM"/>
+      <sheetName val="2000년1차"/>
+      <sheetName val="Bid Summary"/>
+      <sheetName val="eq_data"/>
+      <sheetName val="장비검사 사진"/>
+      <sheetName val="15100"/>
+      <sheetName val="SPEC"/>
+      <sheetName val="EAS"/>
+      <sheetName val="HX"/>
+      <sheetName val="백분율"/>
+      <sheetName val="DHEQSUPT"/>
+      <sheetName val="Engineering"/>
+      <sheetName val="PriceSummary"/>
+      <sheetName val="토공정보"/>
+      <sheetName val="두앙"/>
+      <sheetName val="2"/>
+      <sheetName val="Summary_Sheets"/>
+      <sheetName val="OCT_FDN"/>
+      <sheetName val="Pipe_Supports"/>
+      <sheetName val="Process_Piping"/>
+      <sheetName val="EQUIP_LIST"/>
+      <sheetName val="9_Material_Rates"/>
+      <sheetName val="3__GROUNDING_SYSTEM"/>
+      <sheetName val="Material_and_Manpower_data"/>
+      <sheetName val="Pricing_Summary"/>
+      <sheetName val="Alum_"/>
+      <sheetName val="P-HOT_XLS"/>
+      <sheetName val="steam_table"/>
+      <sheetName val="2_2_STAFF_Scedule"/>
+      <sheetName val="Civil_1"/>
+      <sheetName val="Civil_2"/>
+      <sheetName val="Civil_3"/>
+      <sheetName val="Site_1"/>
+      <sheetName val="Site_2"/>
+      <sheetName val="Site_3"/>
+      <sheetName val="Site_Faci"/>
+      <sheetName val="Rate_Analysis"/>
+      <sheetName val="HORI__VESSEL"/>
+      <sheetName val="입출재고현황_(2)"/>
+      <sheetName val="Man_Hole"/>
+      <sheetName val="MP_MOB"/>
+      <sheetName val="GROUNDING_SYSTEM"/>
+      <sheetName val="97_사업추정(WEKI)"/>
+      <sheetName val="Inst_Matl_Table"/>
+      <sheetName val="Loop_Type"/>
+      <sheetName val="PAD_TR보호대기초"/>
+      <sheetName val="1__설계조건_2_단면가정_3__하중계산"/>
+      <sheetName val="DATA_입력란"/>
+      <sheetName val="General_Data"/>
+      <sheetName val="Car_park_lease"/>
+      <sheetName val="Utility_and_Fire_flange"/>
+      <sheetName val="sum1_(2)"/>
+      <sheetName val="L_V_Separator"/>
+      <sheetName val="Eq__Mobilization"/>
+      <sheetName val="8_PILE__(돌출)"/>
+      <sheetName val="bldg_list"/>
+      <sheetName val="IN"/>
+      <sheetName val="CASH"/>
+      <sheetName val="MEXICO-C"/>
+      <sheetName val="골조시행"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="61" refreshError="1"/>
+      <sheetData sheetId="62" refreshError="1"/>
+      <sheetData sheetId="63" refreshError="1"/>
+      <sheetData sheetId="64" refreshError="1"/>
+      <sheetData sheetId="65" refreshError="1"/>
+      <sheetData sheetId="66" refreshError="1"/>
+      <sheetData sheetId="67" refreshError="1"/>
+      <sheetData sheetId="68" refreshError="1"/>
+      <sheetData sheetId="69" refreshError="1"/>
+      <sheetData sheetId="70" refreshError="1"/>
+      <sheetData sheetId="71" refreshError="1"/>
+      <sheetData sheetId="72" refreshError="1"/>
+      <sheetData sheetId="73" refreshError="1"/>
+      <sheetData sheetId="74" refreshError="1"/>
+      <sheetData sheetId="75" refreshError="1"/>
+      <sheetData sheetId="76" refreshError="1"/>
+      <sheetData sheetId="77" refreshError="1"/>
+      <sheetData sheetId="78" refreshError="1"/>
+      <sheetData sheetId="79" refreshError="1"/>
+      <sheetData sheetId="80" refreshError="1"/>
+      <sheetData sheetId="81" refreshError="1"/>
+      <sheetData sheetId="82" refreshError="1"/>
+      <sheetData sheetId="83" refreshError="1"/>
+      <sheetData sheetId="84" refreshError="1"/>
+      <sheetData sheetId="85" refreshError="1"/>
+      <sheetData sheetId="86" refreshError="1"/>
+      <sheetData sheetId="87" refreshError="1"/>
+      <sheetData sheetId="88" refreshError="1"/>
+      <sheetData sheetId="89" refreshError="1"/>
+      <sheetData sheetId="90" refreshError="1"/>
+      <sheetData sheetId="91" refreshError="1"/>
+      <sheetData sheetId="92" refreshError="1"/>
+      <sheetData sheetId="93" refreshError="1"/>
+      <sheetData sheetId="94" refreshError="1"/>
+      <sheetData sheetId="95" refreshError="1"/>
+      <sheetData sheetId="96" refreshError="1"/>
+      <sheetData sheetId="97" refreshError="1"/>
+      <sheetData sheetId="98" refreshError="1"/>
+      <sheetData sheetId="99" refreshError="1"/>
+      <sheetData sheetId="100" refreshError="1"/>
+      <sheetData sheetId="101" refreshError="1"/>
+      <sheetData sheetId="102" refreshError="1"/>
+      <sheetData sheetId="103" refreshError="1"/>
+      <sheetData sheetId="104" refreshError="1"/>
+      <sheetData sheetId="105" refreshError="1"/>
+      <sheetData sheetId="106" refreshError="1"/>
+      <sheetData sheetId="107" refreshError="1"/>
+      <sheetData sheetId="108" refreshError="1"/>
+      <sheetData sheetId="109" refreshError="1"/>
+      <sheetData sheetId="110" refreshError="1"/>
+      <sheetData sheetId="111" refreshError="1"/>
+      <sheetData sheetId="112" refreshError="1"/>
+      <sheetData sheetId="113" refreshError="1"/>
+      <sheetData sheetId="114" refreshError="1"/>
+      <sheetData sheetId="115" refreshError="1"/>
+      <sheetData sheetId="116" refreshError="1"/>
+      <sheetData sheetId="117" refreshError="1"/>
+      <sheetData sheetId="118" refreshError="1"/>
+      <sheetData sheetId="119" refreshError="1"/>
+      <sheetData sheetId="120" refreshError="1"/>
+      <sheetData sheetId="121" refreshError="1"/>
+      <sheetData sheetId="122" refreshError="1"/>
+      <sheetData sheetId="123" refreshError="1"/>
+      <sheetData sheetId="124" refreshError="1"/>
+      <sheetData sheetId="125" refreshError="1"/>
+      <sheetData sheetId="126" refreshError="1"/>
+      <sheetData sheetId="127" refreshError="1"/>
+      <sheetData sheetId="128" refreshError="1"/>
+      <sheetData sheetId="129" refreshError="1"/>
+      <sheetData sheetId="130" refreshError="1"/>
+      <sheetData sheetId="131" refreshError="1"/>
+      <sheetData sheetId="132" refreshError="1"/>
+      <sheetData sheetId="133" refreshError="1"/>
+      <sheetData sheetId="134" refreshError="1"/>
+      <sheetData sheetId="135" refreshError="1"/>
+      <sheetData sheetId="136" refreshError="1"/>
+      <sheetData sheetId="137" refreshError="1"/>
+      <sheetData sheetId="138" refreshError="1"/>
+      <sheetData sheetId="139" refreshError="1"/>
+      <sheetData sheetId="140" refreshError="1"/>
+      <sheetData sheetId="141" refreshError="1"/>
+      <sheetData sheetId="142" refreshError="1"/>
+      <sheetData sheetId="143" refreshError="1"/>
+      <sheetData sheetId="144" refreshError="1"/>
+      <sheetData sheetId="145" refreshError="1"/>
+      <sheetData sheetId="146" refreshError="1"/>
+      <sheetData sheetId="147" refreshError="1"/>
+      <sheetData sheetId="148" refreshError="1"/>
+      <sheetData sheetId="149" refreshError="1"/>
+      <sheetData sheetId="150" refreshError="1"/>
+      <sheetData sheetId="151" refreshError="1"/>
+      <sheetData sheetId="152" refreshError="1"/>
+      <sheetData sheetId="153" refreshError="1"/>
+      <sheetData sheetId="154" refreshError="1"/>
+      <sheetData sheetId="155" refreshError="1"/>
+      <sheetData sheetId="156" refreshError="1"/>
+      <sheetData sheetId="157" refreshError="1"/>
+      <sheetData sheetId="158" refreshError="1"/>
+      <sheetData sheetId="159" refreshError="1"/>
+      <sheetData sheetId="160" refreshError="1"/>
+      <sheetData sheetId="161" refreshError="1"/>
+      <sheetData sheetId="162" refreshError="1"/>
+      <sheetData sheetId="163" refreshError="1"/>
+      <sheetData sheetId="164" refreshError="1"/>
+      <sheetData sheetId="165" refreshError="1"/>
+      <sheetData sheetId="166" refreshError="1"/>
+      <sheetData sheetId="167" refreshError="1"/>
+      <sheetData sheetId="168" refreshError="1"/>
+      <sheetData sheetId="169" refreshError="1"/>
+      <sheetData sheetId="170" refreshError="1"/>
+      <sheetData sheetId="171" refreshError="1"/>
+      <sheetData sheetId="172" refreshError="1"/>
+      <sheetData sheetId="173" refreshError="1"/>
+      <sheetData sheetId="174" refreshError="1"/>
+      <sheetData sheetId="175" refreshError="1"/>
+      <sheetData sheetId="176" refreshError="1"/>
+      <sheetData sheetId="177" refreshError="1"/>
+      <sheetData sheetId="178" refreshError="1"/>
+      <sheetData sheetId="179" refreshError="1"/>
+      <sheetData sheetId="180" refreshError="1"/>
+      <sheetData sheetId="181" refreshError="1"/>
+      <sheetData sheetId="182" refreshError="1"/>
+      <sheetData sheetId="183" refreshError="1"/>
+      <sheetData sheetId="184" refreshError="1"/>
+      <sheetData sheetId="185" refreshError="1"/>
+      <sheetData sheetId="186" refreshError="1"/>
+      <sheetData sheetId="187" refreshError="1"/>
+      <sheetData sheetId="188" refreshError="1"/>
+      <sheetData sheetId="189" refreshError="1"/>
+      <sheetData sheetId="190" refreshError="1"/>
+      <sheetData sheetId="191" refreshError="1"/>
+      <sheetData sheetId="192" refreshError="1"/>
+      <sheetData sheetId="193" refreshError="1"/>
+      <sheetData sheetId="194" refreshError="1"/>
+      <sheetData sheetId="195" refreshError="1"/>
+      <sheetData sheetId="196" refreshError="1"/>
+      <sheetData sheetId="197" refreshError="1"/>
+      <sheetData sheetId="198" refreshError="1"/>
+      <sheetData sheetId="199" refreshError="1"/>
+      <sheetData sheetId="200" refreshError="1"/>
+      <sheetData sheetId="201" refreshError="1"/>
+      <sheetData sheetId="202" refreshError="1"/>
+      <sheetData sheetId="203" refreshError="1"/>
+      <sheetData sheetId="204" refreshError="1"/>
+      <sheetData sheetId="205" refreshError="1"/>
+      <sheetData sheetId="206" refreshError="1"/>
+      <sheetData sheetId="207" refreshError="1"/>
+      <sheetData sheetId="208" refreshError="1"/>
+      <sheetData sheetId="209" refreshError="1"/>
+      <sheetData sheetId="210" refreshError="1"/>
+      <sheetData sheetId="211" refreshError="1"/>
+      <sheetData sheetId="212" refreshError="1"/>
+      <sheetData sheetId="213" refreshError="1"/>
+      <sheetData sheetId="214" refreshError="1"/>
+      <sheetData sheetId="215" refreshError="1"/>
+      <sheetData sheetId="216" refreshError="1"/>
+      <sheetData sheetId="217" refreshError="1"/>
+      <sheetData sheetId="218" refreshError="1"/>
+      <sheetData sheetId="219" refreshError="1"/>
+      <sheetData sheetId="220" refreshError="1"/>
+      <sheetData sheetId="221" refreshError="1"/>
+      <sheetData sheetId="222" refreshError="1"/>
+      <sheetData sheetId="223" refreshError="1"/>
+      <sheetData sheetId="224" refreshError="1"/>
+      <sheetData sheetId="225" refreshError="1"/>
+      <sheetData sheetId="226" refreshError="1"/>
+      <sheetData sheetId="227" refreshError="1"/>
+      <sheetData sheetId="228" refreshError="1"/>
+      <sheetData sheetId="229" refreshError="1"/>
+      <sheetData sheetId="230" refreshError="1"/>
+      <sheetData sheetId="231" refreshError="1"/>
+      <sheetData sheetId="232" refreshError="1"/>
+      <sheetData sheetId="233" refreshError="1"/>
+      <sheetData sheetId="234" refreshError="1"/>
+      <sheetData sheetId="235" refreshError="1"/>
+      <sheetData sheetId="236" refreshError="1"/>
+      <sheetData sheetId="237" refreshError="1"/>
+      <sheetData sheetId="238" refreshError="1"/>
+      <sheetData sheetId="239" refreshError="1"/>
+      <sheetData sheetId="240" refreshError="1"/>
+      <sheetData sheetId="241" refreshError="1"/>
+      <sheetData sheetId="242" refreshError="1"/>
+      <sheetData sheetId="243" refreshError="1"/>
+      <sheetData sheetId="244" refreshError="1"/>
+      <sheetData sheetId="245" refreshError="1"/>
+      <sheetData sheetId="246" refreshError="1"/>
+      <sheetData sheetId="247" refreshError="1"/>
+      <sheetData sheetId="248" refreshError="1"/>
+      <sheetData sheetId="249" refreshError="1"/>
+      <sheetData sheetId="250" refreshError="1"/>
+      <sheetData sheetId="251" refreshError="1"/>
+      <sheetData sheetId="252" refreshError="1"/>
+      <sheetData sheetId="253" refreshError="1"/>
+      <sheetData sheetId="254" refreshError="1"/>
+      <sheetData sheetId="255" refreshError="1"/>
+      <sheetData sheetId="256" refreshError="1"/>
+      <sheetData sheetId="257" refreshError="1"/>
+      <sheetData sheetId="258" refreshError="1"/>
+      <sheetData sheetId="259" refreshError="1"/>
+      <sheetData sheetId="260" refreshError="1"/>
+      <sheetData sheetId="261" refreshError="1"/>
+      <sheetData sheetId="262" refreshError="1"/>
+      <sheetData sheetId="263" refreshError="1"/>
+      <sheetData sheetId="264" refreshError="1"/>
+      <sheetData sheetId="265" refreshError="1"/>
+      <sheetData sheetId="266" refreshError="1"/>
+      <sheetData sheetId="267" refreshError="1"/>
+      <sheetData sheetId="268" refreshError="1"/>
+      <sheetData sheetId="269" refreshError="1"/>
+      <sheetData sheetId="270" refreshError="1"/>
+      <sheetData sheetId="271" refreshError="1"/>
+      <sheetData sheetId="272" refreshError="1"/>
+      <sheetData sheetId="273" refreshError="1"/>
+      <sheetData sheetId="274" refreshError="1"/>
+      <sheetData sheetId="275" refreshError="1"/>
+      <sheetData sheetId="276" refreshError="1"/>
+      <sheetData sheetId="277" refreshError="1"/>
+      <sheetData sheetId="278" refreshError="1"/>
+      <sheetData sheetId="279" refreshError="1"/>
+      <sheetData sheetId="280" refreshError="1"/>
+      <sheetData sheetId="281" refreshError="1"/>
+      <sheetData sheetId="282" refreshError="1"/>
+      <sheetData sheetId="283" refreshError="1"/>
+      <sheetData sheetId="284" refreshError="1"/>
+      <sheetData sheetId="285" refreshError="1"/>
+      <sheetData sheetId="286" refreshError="1"/>
+      <sheetData sheetId="287"/>
+      <sheetData sheetId="288"/>
+      <sheetData sheetId="289"/>
+      <sheetData sheetId="290"/>
+      <sheetData sheetId="291"/>
+      <sheetData sheetId="292"/>
+      <sheetData sheetId="293"/>
+      <sheetData sheetId="294"/>
+      <sheetData sheetId="295"/>
+      <sheetData sheetId="296"/>
+      <sheetData sheetId="297"/>
+      <sheetData sheetId="298"/>
+      <sheetData sheetId="299"/>
+      <sheetData sheetId="300"/>
+      <sheetData sheetId="301"/>
+      <sheetData sheetId="302"/>
+      <sheetData sheetId="303"/>
+      <sheetData sheetId="304"/>
+      <sheetData sheetId="305"/>
+      <sheetData sheetId="306"/>
+      <sheetData sheetId="307"/>
+      <sheetData sheetId="308"/>
+      <sheetData sheetId="309"/>
+      <sheetData sheetId="310"/>
+      <sheetData sheetId="311"/>
+      <sheetData sheetId="312" refreshError="1"/>
+      <sheetData sheetId="313" refreshError="1"/>
+      <sheetData sheetId="314" refreshError="1"/>
+      <sheetData sheetId="315" refreshError="1"/>
+      <sheetData sheetId="316" refreshError="1"/>
+      <sheetData sheetId="317" refreshError="1"/>
+      <sheetData sheetId="318" refreshError="1"/>
+      <sheetData sheetId="319" refreshError="1"/>
+      <sheetData sheetId="320" refreshError="1"/>
+      <sheetData sheetId="321" refreshError="1"/>
+      <sheetData sheetId="322" refreshError="1"/>
+      <sheetData sheetId="323" refreshError="1"/>
+      <sheetData sheetId="324" refreshError="1"/>
+      <sheetData sheetId="325" refreshError="1"/>
+      <sheetData sheetId="326" refreshError="1"/>
+      <sheetData sheetId="327" refreshError="1"/>
+      <sheetData sheetId="328" refreshError="1"/>
+      <sheetData sheetId="329" refreshError="1"/>
+      <sheetData sheetId="330" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -39135,7 +39080,7 @@
   <dimension ref="A1:K183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -39154,4899 +39099,4899 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11" ht="60" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
     </row>
     <row r="42" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
     </row>
     <row r="43" spans="1:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
     </row>
     <row r="44" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
     </row>
     <row r="45" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
     </row>
     <row r="54" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
     </row>
     <row r="55" spans="1:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
     </row>
     <row r="56" spans="1:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
     </row>
     <row r="69" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
     </row>
     <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
     </row>
     <row r="71" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
     </row>
     <row r="74" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
     </row>
     <row r="75" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="G75" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
     </row>
     <row r="76" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="G76" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
     </row>
     <row r="77" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="F77" s="15" t="s">
+      <c r="F77" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
     </row>
     <row r="78" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F78" s="15" t="s">
+      <c r="F78" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="G78" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F80" s="15" t="s">
+      <c r="F80" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
     </row>
     <row r="81" spans="1:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="F81" s="15" t="s">
+      <c r="F81" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
     </row>
     <row r="82" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="F82" s="15" t="s">
+      <c r="F82" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
     </row>
     <row r="83" spans="1:11" ht="60" x14ac:dyDescent="0.3">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F83" s="15" t="s">
+      <c r="F83" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G84" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="F85" s="15" t="s">
+      <c r="F85" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="G85" s="14" t="s">
+      <c r="G85" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="D86" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="F86" s="15" t="s">
+      <c r="F86" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="G86" s="14" t="s">
+      <c r="G86" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
     </row>
     <row r="87" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="D87" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F87" s="15" t="s">
+      <c r="F87" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="G87" s="14" t="s">
+      <c r="G87" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="F88" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G88" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
     </row>
     <row r="89" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="D89" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F89" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="G89" s="14" t="s">
+      <c r="G89" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
     </row>
     <row r="90" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="D90" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F90" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="G90" s="14" t="s">
+      <c r="G90" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
     </row>
     <row r="91" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="F91" s="15" t="s">
+      <c r="F91" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="G91" s="14" t="s">
+      <c r="G91" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
     </row>
     <row r="92" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="D92" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F92" s="15" t="s">
+      <c r="F92" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="G92" s="14" t="s">
+      <c r="G92" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
     </row>
     <row r="93" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="D93" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F93" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
     </row>
     <row r="94" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="D94" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F94" s="15" t="s">
+      <c r="F94" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
     </row>
     <row r="95" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D95" s="16" t="s">
+      <c r="D95" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="F95" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G95" s="14" t="s">
+      <c r="G95" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
     </row>
     <row r="96" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="D96" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F96" s="15" t="s">
+      <c r="F96" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="G96" s="14" t="s">
+      <c r="G96" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
     </row>
     <row r="97" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="F97" s="15" t="s">
+      <c r="F97" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="G97" s="14" t="s">
+      <c r="G97" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
     </row>
     <row r="98" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="D98" s="16" t="s">
+      <c r="D98" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="F98" s="15" t="s">
+      <c r="F98" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="G98" s="14" t="s">
+      <c r="G98" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
     </row>
     <row r="99" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D99" s="16" t="s">
+      <c r="D99" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F99" s="15" t="s">
+      <c r="F99" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="G99" s="14" t="s">
+      <c r="G99" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
     </row>
     <row r="100" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="D100" s="16" t="s">
+      <c r="D100" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F100" s="15" t="s">
+      <c r="F100" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="G100" s="14" t="s">
+      <c r="G100" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
     </row>
     <row r="101" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D101" s="16" t="s">
+      <c r="D101" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F101" s="15" t="s">
+      <c r="F101" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="G101" s="14" t="s">
+      <c r="G101" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
     </row>
     <row r="102" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D102" s="16" t="s">
+      <c r="D102" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="F102" s="15" t="s">
+      <c r="F102" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="G102" s="14" t="s">
+      <c r="G102" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
     </row>
     <row r="103" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D103" s="16" t="s">
+      <c r="D103" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="F103" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="G103" s="14" t="s">
+      <c r="G103" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
     </row>
     <row r="104" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D104" s="16" t="s">
+      <c r="D104" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="F104" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="G104" s="14" t="s">
+      <c r="G104" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
     </row>
     <row r="105" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D105" s="16" t="s">
+      <c r="D105" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="F105" s="15" t="s">
+      <c r="F105" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="G105" s="14" t="s">
+      <c r="G105" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
     </row>
     <row r="106" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="D106" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="F106" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="G106" s="14" t="s">
+      <c r="G106" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="D107" s="12" t="s">
+      <c r="D107" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E107" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="F107" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G107" s="10" t="s">
+      <c r="G107" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
     </row>
     <row r="108" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D108" s="16" t="s">
+      <c r="D108" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="F108" s="15" t="s">
+      <c r="F108" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="G108" s="14" t="s">
+      <c r="G108" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="D109" s="16" t="s">
+      <c r="D109" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="F109" s="15" t="s">
+      <c r="F109" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="G109" s="14" t="s">
+      <c r="G109" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="D110" s="16" t="s">
+      <c r="D110" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="F110" s="15" t="s">
+      <c r="F110" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="G110" s="14" t="s">
+      <c r="G110" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
     </row>
     <row r="111" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D111" s="16" t="s">
+      <c r="D111" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="F111" s="15" t="s">
+      <c r="F111" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="G111" s="14" t="s">
+      <c r="G111" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
     </row>
     <row r="112" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="D112" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="F112" s="15" t="s">
+      <c r="F112" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="G112" s="14" t="s">
+      <c r="G112" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
     </row>
     <row r="113" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D113" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="F113" s="15" t="s">
+      <c r="F113" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="G113" s="14" t="s">
+      <c r="G113" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
     </row>
     <row r="114" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="D114" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="F114" s="15" t="s">
+      <c r="F114" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="G114" s="14" t="s">
+      <c r="G114" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
     </row>
     <row r="115" spans="1:11" ht="60" x14ac:dyDescent="0.3">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C115" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="D115" s="16" t="s">
+      <c r="D115" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="F115" s="15" t="s">
+      <c r="F115" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="G115" s="14" t="s">
+      <c r="G115" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
     </row>
     <row r="116" spans="1:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="D116" s="16" t="s">
+      <c r="D116" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="F116" s="15" t="s">
+      <c r="F116" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="G116" s="14" t="s">
+      <c r="G116" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H116" s="17"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
     </row>
     <row r="117" spans="1:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C117" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D117" s="16" t="s">
+      <c r="D117" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="F117" s="15" t="s">
+      <c r="F117" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="G117" s="14" t="s">
+      <c r="G117" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D118" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E118" s="12" t="s">
+      <c r="E118" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F118" s="11" t="s">
+      <c r="F118" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G118" s="10" t="s">
+      <c r="G118" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="13"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="D119" s="16" t="s">
+      <c r="D119" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="F119" s="15" t="s">
+      <c r="F119" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="G119" s="14" t="s">
+      <c r="G119" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C120" s="15" t="s">
+      <c r="C120" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="D120" s="16" t="s">
+      <c r="D120" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="F120" s="15" t="s">
+      <c r="F120" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="G120" s="14" t="s">
+      <c r="G120" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H120" s="17"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C121" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="D121" s="16" t="s">
+      <c r="D121" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="F121" s="15" t="s">
+      <c r="F121" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="G121" s="14" t="s">
+      <c r="G121" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C122" s="15" t="s">
+      <c r="C122" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="D122" s="16" t="s">
+      <c r="D122" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="F122" s="15" t="s">
+      <c r="F122" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="G122" s="14" t="s">
+      <c r="G122" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H122" s="17"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="D123" s="12" t="s">
+      <c r="D123" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E123" s="12" t="s">
+      <c r="E123" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F123" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G123" s="10" t="s">
+      <c r="G123" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
     </row>
     <row r="124" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C124" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="D124" s="16" t="s">
+      <c r="D124" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F124" s="15" t="s">
+      <c r="F124" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="G124" s="14" t="s">
+      <c r="G124" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H124" s="17"/>
-      <c r="I124" s="17"/>
-      <c r="J124" s="17"/>
-      <c r="K124" s="17"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
     </row>
     <row r="125" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="D125" s="16" t="s">
+      <c r="D125" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F125" s="15" t="s">
+      <c r="F125" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="G125" s="14" t="s">
+      <c r="G125" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H125" s="17"/>
-      <c r="I125" s="17"/>
-      <c r="J125" s="17"/>
-      <c r="K125" s="17"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
     </row>
     <row r="126" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C126" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="D126" s="16" t="s">
+      <c r="D126" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F126" s="15" t="s">
+      <c r="F126" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="G126" s="14" t="s">
+      <c r="G126" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H126" s="17"/>
-      <c r="I126" s="17"/>
-      <c r="J126" s="17"/>
-      <c r="K126" s="17"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
     </row>
     <row r="127" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="D127" s="16" t="s">
+      <c r="D127" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F127" s="15" t="s">
+      <c r="F127" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="G127" s="14" t="s">
+      <c r="G127" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H127" s="17"/>
-      <c r="I127" s="17"/>
-      <c r="J127" s="17"/>
-      <c r="K127" s="17"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
     </row>
     <row r="128" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C128" s="15" t="s">
+      <c r="C128" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="D128" s="16" t="s">
+      <c r="D128" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F128" s="15" t="s">
+      <c r="F128" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="G128" s="14" t="s">
+      <c r="G128" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H128" s="17"/>
-      <c r="I128" s="17"/>
-      <c r="J128" s="17"/>
-      <c r="K128" s="17"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
     </row>
     <row r="129" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="C129" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="D129" s="16" t="s">
+      <c r="D129" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F129" s="15" t="s">
+      <c r="F129" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="G129" s="14" t="s">
+      <c r="G129" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H129" s="17"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="17"/>
-      <c r="K129" s="17"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C130" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="D130" s="16" t="s">
+      <c r="D130" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F130" s="15" t="s">
+      <c r="F130" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="G130" s="14" t="s">
+      <c r="G130" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H130" s="17"/>
-      <c r="I130" s="17"/>
-      <c r="J130" s="17"/>
-      <c r="K130" s="17"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="13"/>
     </row>
     <row r="131" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="D131" s="16" t="s">
+      <c r="D131" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F131" s="15" t="s">
+      <c r="F131" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="G131" s="14" t="s">
+      <c r="G131" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H131" s="17"/>
-      <c r="I131" s="17"/>
-      <c r="J131" s="17"/>
-      <c r="K131" s="17"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
     </row>
     <row r="132" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="D132" s="16" t="s">
+      <c r="D132" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="F132" s="15" t="s">
+      <c r="F132" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="G132" s="14" t="s">
+      <c r="G132" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H132" s="17"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="17"/>
-      <c r="K132" s="17"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
     </row>
     <row r="133" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C133" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="D133" s="16" t="s">
+      <c r="D133" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="F133" s="15" t="s">
+      <c r="F133" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="G133" s="14" t="s">
+      <c r="G133" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H133" s="17"/>
-      <c r="I133" s="17"/>
-      <c r="J133" s="17"/>
-      <c r="K133" s="17"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
     </row>
     <row r="134" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="D134" s="16" t="s">
+      <c r="D134" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="F134" s="15" t="s">
+      <c r="F134" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="G134" s="14" t="s">
+      <c r="G134" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H134" s="17"/>
-      <c r="I134" s="17"/>
-      <c r="J134" s="17"/>
-      <c r="K134" s="17"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
     </row>
     <row r="135" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="D135" s="16" t="s">
+      <c r="D135" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="F135" s="15" t="s">
+      <c r="F135" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="G135" s="14" t="s">
+      <c r="G135" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H135" s="17"/>
-      <c r="I135" s="17"/>
-      <c r="J135" s="17"/>
-      <c r="K135" s="17"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="D136" s="16" t="s">
+      <c r="D136" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F136" s="15" t="s">
+      <c r="F136" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="G136" s="14" t="s">
+      <c r="G136" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H136" s="17"/>
-      <c r="I136" s="17"/>
-      <c r="J136" s="17"/>
-      <c r="K136" s="17"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C137" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="D137" s="16" t="s">
+      <c r="D137" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="F137" s="15" t="s">
+      <c r="F137" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="G137" s="14" t="s">
+      <c r="G137" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H137" s="17"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
-      <c r="K137" s="17"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C138" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="D138" s="16" t="s">
+      <c r="D138" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="F138" s="15" t="s">
+      <c r="F138" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="G138" s="14" t="s">
+      <c r="G138" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
-      <c r="K138" s="17"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C139" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="D139" s="16" t="s">
+      <c r="D139" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F139" s="15" t="s">
+      <c r="F139" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="G139" s="14" t="s">
+      <c r="G139" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H139" s="17"/>
-      <c r="I139" s="17"/>
-      <c r="J139" s="17"/>
-      <c r="K139" s="17"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C140" s="15" t="s">
+      <c r="C140" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="D140" s="16" t="s">
+      <c r="D140" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F140" s="15" t="s">
+      <c r="F140" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="G140" s="14" t="s">
+      <c r="G140" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H140" s="17"/>
-      <c r="I140" s="17"/>
-      <c r="J140" s="17"/>
-      <c r="K140" s="17"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="13"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="D141" s="16" t="s">
+      <c r="D141" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F141" s="15" t="s">
+      <c r="F141" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G141" s="14" t="s">
+      <c r="G141" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H141" s="17"/>
-      <c r="I141" s="17"/>
-      <c r="J141" s="17"/>
-      <c r="K141" s="17"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C142" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="D142" s="16" t="s">
+      <c r="D142" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F142" s="15" t="s">
+      <c r="F142" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="G142" s="14" t="s">
+      <c r="G142" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H142" s="17"/>
-      <c r="I142" s="17"/>
-      <c r="J142" s="17"/>
-      <c r="K142" s="17"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C143" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="D143" s="16" t="s">
+      <c r="D143" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="F143" s="15" t="s">
+      <c r="F143" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="G143" s="14" t="s">
+      <c r="G143" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H143" s="17"/>
-      <c r="I143" s="17"/>
-      <c r="J143" s="17"/>
-      <c r="K143" s="17"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="13"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C144" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="D144" s="12" t="s">
+      <c r="D144" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E144" s="12" t="s">
+      <c r="E144" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F144" s="11" t="s">
+      <c r="F144" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G144" s="10" t="s">
+      <c r="G144" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H144" s="13"/>
-      <c r="I144" s="13"/>
-      <c r="J144" s="13"/>
-      <c r="K144" s="13"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="15" t="s">
+      <c r="C145" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="D145" s="16" t="s">
+      <c r="D145" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F145" s="15" t="s">
+      <c r="F145" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G145" s="14" t="s">
+      <c r="G145" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="H145" s="17"/>
-      <c r="I145" s="17"/>
-      <c r="J145" s="17"/>
-      <c r="K145" s="17"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E146" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="F146" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G146" s="6" t="s">
+      <c r="G146" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
-      <c r="K146" s="9"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D147" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E147" s="12" t="s">
+      <c r="E147" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F147" s="11" t="s">
+      <c r="F147" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G147" s="10" t="s">
+      <c r="G147" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H147" s="13"/>
-      <c r="I147" s="13"/>
-      <c r="J147" s="13"/>
-      <c r="K147" s="13"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
     </row>
     <row r="148" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C148" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="D148" s="16" t="s">
+      <c r="D148" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="F148" s="15" t="s">
+      <c r="F148" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="G148" s="14" t="s">
+      <c r="G148" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H148" s="17"/>
-      <c r="I148" s="17"/>
-      <c r="J148" s="17"/>
-      <c r="K148" s="17"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
+      <c r="K148" s="13"/>
     </row>
     <row r="149" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C149" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="D149" s="16" t="s">
+      <c r="D149" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="F149" s="15" t="s">
+      <c r="F149" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="G149" s="14" t="s">
+      <c r="G149" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H149" s="17"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="17"/>
-      <c r="K149" s="17"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="13"/>
+      <c r="K149" s="13"/>
     </row>
     <row r="150" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A150" s="14" t="s">
+      <c r="A150" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C150" s="15" t="s">
+      <c r="C150" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="D150" s="16" t="s">
+      <c r="D150" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="F150" s="15" t="s">
+      <c r="F150" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="G150" s="14" t="s">
+      <c r="G150" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H150" s="17"/>
-      <c r="I150" s="17"/>
-      <c r="J150" s="17"/>
-      <c r="K150" s="17"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
     </row>
     <row r="151" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="C151" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="D151" s="16" t="s">
+      <c r="D151" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="F151" s="15" t="s">
+      <c r="F151" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="G151" s="14" t="s">
+      <c r="G151" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H151" s="17"/>
-      <c r="I151" s="17"/>
-      <c r="J151" s="17"/>
-      <c r="K151" s="17"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
+      <c r="K151" s="13"/>
     </row>
     <row r="152" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C152" s="15" t="s">
+      <c r="C152" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="D152" s="16" t="s">
+      <c r="D152" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="F152" s="15" t="s">
+      <c r="F152" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="G152" s="14" t="s">
+      <c r="G152" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H152" s="17"/>
-      <c r="I152" s="17"/>
-      <c r="J152" s="17"/>
-      <c r="K152" s="17"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="13"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D153" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E153" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F153" s="7" t="s">
+      <c r="F153" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G153" s="6" t="s">
+      <c r="G153" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H153" s="9"/>
-      <c r="I153" s="9"/>
-      <c r="J153" s="9"/>
-      <c r="K153" s="9"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C154" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D154" s="12" t="s">
+      <c r="D154" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="12" t="s">
+      <c r="E154" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F154" s="11" t="s">
+      <c r="F154" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G154" s="10" t="s">
+      <c r="G154" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H154" s="13"/>
-      <c r="I154" s="13"/>
-      <c r="J154" s="13"/>
-      <c r="K154" s="13"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C155" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="D155" s="16" t="s">
+      <c r="D155" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="F155" s="15" t="s">
+      <c r="F155" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="G155" s="14" t="s">
+      <c r="G155" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H155" s="17"/>
-      <c r="I155" s="17"/>
-      <c r="J155" s="17"/>
-      <c r="K155" s="17"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="13"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C156" s="15" t="s">
+      <c r="C156" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="D156" s="16" t="s">
+      <c r="D156" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="F156" s="15" t="s">
+      <c r="F156" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="G156" s="14" t="s">
+      <c r="G156" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H156" s="17"/>
-      <c r="I156" s="17"/>
-      <c r="J156" s="17"/>
-      <c r="K156" s="17"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C157" s="15" t="s">
+      <c r="C157" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="D157" s="16" t="s">
+      <c r="D157" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="F157" s="15" t="s">
+      <c r="F157" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="G157" s="14" t="s">
+      <c r="G157" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H157" s="17"/>
-      <c r="I157" s="17"/>
-      <c r="J157" s="17"/>
-      <c r="K157" s="17"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="13"/>
+      <c r="K157" s="13"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C158" s="15" t="s">
+      <c r="C158" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="D158" s="16" t="s">
+      <c r="D158" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="F158" s="15" t="s">
+      <c r="F158" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="G158" s="14" t="s">
+      <c r="G158" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H158" s="17"/>
-      <c r="I158" s="17"/>
-      <c r="J158" s="17"/>
-      <c r="K158" s="17"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="13"/>
+      <c r="K158" s="13"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C159" s="15" t="s">
+      <c r="C159" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="D159" s="16" t="s">
+      <c r="D159" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="F159" s="15" t="s">
+      <c r="F159" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="G159" s="14" t="s">
+      <c r="G159" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H159" s="17"/>
-      <c r="I159" s="17"/>
-      <c r="J159" s="17"/>
-      <c r="K159" s="17"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="13"/>
     </row>
     <row r="160" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C160" s="15" t="s">
+      <c r="C160" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="D160" s="16" t="s">
+      <c r="D160" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="F160" s="15" t="s">
+      <c r="F160" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="G160" s="14" t="s">
+      <c r="G160" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17"/>
-      <c r="J160" s="17"/>
-      <c r="K160" s="17"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+      <c r="K160" s="13"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E161" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F161" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G161" s="6" t="s">
+      <c r="G161" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D162" s="12" t="s">
+      <c r="D162" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E162" s="12" t="s">
+      <c r="E162" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F162" s="11" t="s">
+      <c r="F162" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G162" s="10" t="s">
+      <c r="G162" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H162" s="13"/>
-      <c r="I162" s="13"/>
-      <c r="J162" s="13"/>
-      <c r="K162" s="13"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="C163" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="D163" s="16" t="s">
+      <c r="D163" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="F163" s="15" t="s">
+      <c r="F163" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="G163" s="14" t="s">
+      <c r="G163" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H163" s="17"/>
-      <c r="I163" s="17"/>
-      <c r="J163" s="17"/>
-      <c r="K163" s="17"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="13"/>
+      <c r="K163" s="13"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C164" s="15" t="s">
+      <c r="C164" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="D164" s="16" t="s">
+      <c r="D164" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="F164" s="15" t="s">
+      <c r="F164" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="G164" s="14" t="s">
+      <c r="G164" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H164" s="17"/>
-      <c r="I164" s="17"/>
-      <c r="J164" s="17"/>
-      <c r="K164" s="17"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="13"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C165" s="15" t="s">
+      <c r="C165" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="D165" s="16" t="s">
+      <c r="D165" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="F165" s="15" t="s">
+      <c r="F165" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="G165" s="14" t="s">
+      <c r="G165" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H165" s="17"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="17"/>
-      <c r="K165" s="17"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="13"/>
+      <c r="K165" s="13"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="14" t="s">
+      <c r="A166" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="B166" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C166" s="15" t="s">
+      <c r="C166" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="D166" s="16" t="s">
+      <c r="D166" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F166" s="15" t="s">
+      <c r="F166" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="G166" s="14" t="s">
+      <c r="G166" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H166" s="17"/>
-      <c r="I166" s="17"/>
-      <c r="J166" s="17"/>
-      <c r="K166" s="17"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="13"/>
+      <c r="K166" s="13"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A167" s="14" t="s">
+      <c r="A167" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C167" s="15" t="s">
+      <c r="C167" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="D167" s="16" t="s">
+      <c r="D167" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E167" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="F167" s="15" t="s">
+      <c r="F167" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="G167" s="14" t="s">
+      <c r="G167" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H167" s="17"/>
-      <c r="I167" s="17"/>
-      <c r="J167" s="17"/>
-      <c r="K167" s="17"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="13"/>
+      <c r="K167" s="13"/>
     </row>
     <row r="168" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C168" s="15" t="s">
+      <c r="C168" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="D168" s="16" t="s">
+      <c r="D168" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="F168" s="15" t="s">
+      <c r="F168" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="G168" s="14" t="s">
+      <c r="G168" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H168" s="17"/>
-      <c r="I168" s="17"/>
-      <c r="J168" s="17"/>
-      <c r="K168" s="17"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="13"/>
+      <c r="K168" s="13"/>
     </row>
     <row r="169" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A169" s="14" t="s">
+      <c r="A169" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="C169" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="D169" s="16" t="s">
+      <c r="D169" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="F169" s="15" t="s">
+      <c r="F169" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="G169" s="14" t="s">
+      <c r="G169" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H169" s="17"/>
-      <c r="I169" s="17"/>
-      <c r="J169" s="17"/>
-      <c r="K169" s="17"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="13"/>
+      <c r="K169" s="13"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C170" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="D170" s="8" t="s">
+      <c r="D170" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E170" s="8" t="s">
+      <c r="E170" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F170" s="7" t="s">
+      <c r="F170" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G170" s="6" t="s">
+      <c r="G170" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H170" s="9"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
-      <c r="K170" s="9"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" s="10" t="s">
+      <c r="A171" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D171" s="12" t="s">
+      <c r="D171" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E171" s="12" t="s">
+      <c r="E171" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F171" s="11" t="s">
+      <c r="F171" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G171" s="10" t="s">
+      <c r="G171" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H171" s="13"/>
-      <c r="I171" s="13"/>
-      <c r="J171" s="13"/>
-      <c r="K171" s="13"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="14" t="s">
+      <c r="A172" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C172" s="15" t="s">
+      <c r="C172" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="D172" s="16" t="s">
+      <c r="D172" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="F172" s="15" t="s">
+      <c r="F172" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="G172" s="14" t="s">
+      <c r="G172" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H172" s="17"/>
-      <c r="I172" s="17"/>
-      <c r="J172" s="17"/>
-      <c r="K172" s="17"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="13"/>
+      <c r="J172" s="13"/>
+      <c r="K172" s="13"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="14" t="s">
+      <c r="A173" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C173" s="15" t="s">
+      <c r="C173" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="D173" s="16" t="s">
+      <c r="D173" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="F173" s="15" t="s">
+      <c r="F173" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="G173" s="14" t="s">
+      <c r="G173" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H173" s="17"/>
-      <c r="I173" s="17"/>
-      <c r="J173" s="17"/>
-      <c r="K173" s="17"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="13"/>
+      <c r="J173" s="13"/>
+      <c r="K173" s="13"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A174" s="14" t="s">
+      <c r="A174" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="B174" s="14" t="s">
+      <c r="B174" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C174" s="15" t="s">
+      <c r="C174" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="D174" s="16" t="s">
+      <c r="D174" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E174" s="16" t="s">
+      <c r="E174" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="F174" s="15" t="s">
+      <c r="F174" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="G174" s="14" t="s">
+      <c r="G174" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H174" s="17"/>
-      <c r="I174" s="17"/>
-      <c r="J174" s="17"/>
-      <c r="K174" s="17"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="13"/>
+      <c r="J174" s="13"/>
+      <c r="K174" s="13"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="B175" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="15" t="s">
+      <c r="C175" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="D175" s="16" t="s">
+      <c r="D175" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E175" s="16" t="s">
+      <c r="E175" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="F175" s="15" t="s">
+      <c r="F175" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="G175" s="14" t="s">
+      <c r="G175" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H175" s="17"/>
-      <c r="I175" s="17"/>
-      <c r="J175" s="17"/>
-      <c r="K175" s="17"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="13"/>
+      <c r="J175" s="13"/>
+      <c r="K175" s="13"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="14" t="s">
+      <c r="A176" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="B176" s="14" t="s">
+      <c r="B176" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C176" s="15" t="s">
+      <c r="C176" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="D176" s="16" t="s">
+      <c r="D176" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E176" s="16" t="s">
+      <c r="E176" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F176" s="15" t="s">
+      <c r="F176" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="G176" s="14" t="s">
+      <c r="G176" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H176" s="17"/>
-      <c r="I176" s="17"/>
-      <c r="J176" s="17"/>
-      <c r="K176" s="17"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="13"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
+      <c r="A177" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C177" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D177" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E177" s="8" t="s">
+      <c r="E177" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F177" s="7" t="s">
+      <c r="F177" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G177" s="6" t="s">
+      <c r="G177" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H177" s="9"/>
-      <c r="I177" s="9"/>
-      <c r="J177" s="9"/>
-      <c r="K177" s="9"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A178" s="10" t="s">
+      <c r="A178" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C178" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D178" s="12" t="s">
+      <c r="D178" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E178" s="12" t="s">
+      <c r="E178" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F178" s="11" t="s">
+      <c r="F178" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G178" s="10" t="s">
+      <c r="G178" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H178" s="13"/>
-      <c r="I178" s="13"/>
-      <c r="J178" s="13"/>
-      <c r="K178" s="13"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="9"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179" s="14" t="s">
+      <c r="A179" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="B179" s="14" t="s">
+      <c r="B179" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C179" s="15" t="s">
+      <c r="C179" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="D179" s="16" t="s">
+      <c r="D179" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="E179" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="F179" s="15" t="s">
+      <c r="F179" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="G179" s="14" t="s">
+      <c r="G179" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H179" s="17"/>
-      <c r="I179" s="17"/>
-      <c r="J179" s="17"/>
-      <c r="K179" s="17"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="13"/>
+      <c r="K179" s="13"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180" s="14" t="s">
+      <c r="A180" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="B180" s="14" t="s">
+      <c r="B180" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C180" s="15" t="s">
+      <c r="C180" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="D180" s="16" t="s">
+      <c r="D180" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E180" s="16" t="s">
+      <c r="E180" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="F180" s="15" t="s">
+      <c r="F180" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="G180" s="14" t="s">
+      <c r="G180" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H180" s="17"/>
-      <c r="I180" s="17"/>
-      <c r="J180" s="17"/>
-      <c r="K180" s="17"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
+      <c r="K180" s="13"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A181" s="14" t="s">
+      <c r="A181" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="B181" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C181" s="15" t="s">
+      <c r="C181" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="D181" s="16" t="s">
+      <c r="D181" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E181" s="16" t="s">
+      <c r="E181" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="F181" s="15" t="s">
+      <c r="F181" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="G181" s="14" t="s">
+      <c r="G181" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H181" s="17"/>
-      <c r="I181" s="17"/>
-      <c r="J181" s="17"/>
-      <c r="K181" s="17"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="13"/>
+      <c r="K181" s="13"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A182" s="14" t="s">
+      <c r="A182" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="B182" s="14" t="s">
+      <c r="B182" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="15" t="s">
+      <c r="C182" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="D182" s="16" t="s">
+      <c r="D182" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E182" s="16" t="s">
+      <c r="E182" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F182" s="15" t="s">
+      <c r="F182" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="G182" s="14" t="s">
+      <c r="G182" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H182" s="17"/>
-      <c r="I182" s="17"/>
-      <c r="J182" s="17"/>
-      <c r="K182" s="17"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="13"/>
+      <c r="J182" s="13"/>
+      <c r="K182" s="13"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183" s="14" t="s">
+      <c r="A183" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="B183" s="14" t="s">
+      <c r="B183" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C183" s="15" t="s">
+      <c r="C183" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="D183" s="16" t="s">
+      <c r="D183" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="E183" s="16" t="s">
+      <c r="E183" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="F183" s="15" t="s">
+      <c r="F183" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="G183" s="14" t="s">
+      <c r="G183" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H183" s="17"/>
-      <c r="I183" s="17"/>
-      <c r="J183" s="17"/>
-      <c r="K183" s="17"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="13"/>
+      <c r="J183" s="13"/>
+      <c r="K183" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
